--- a/analysis/derived_data/Use-wear.xlsx
+++ b/analysis/derived_data/Use-wear.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">20x07</t>
   </si>
   <si>
-    <t xml:space="preserve">14:52:06</t>
+    <t xml:space="preserve">15:08:03</t>
   </si>
   <si>
     <t xml:space="preserve">07.07.2020 16:58</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t xml:space="preserve">14:52:29</t>
+    <t xml:space="preserve">15:08:27</t>
   </si>
   <si>
     <t xml:space="preserve">07.08.2020 10:35</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">c</t>
   </si>
   <si>
-    <t xml:space="preserve">14:52:53</t>
+    <t xml:space="preserve">15:08:51</t>
   </si>
   <si>
     <t xml:space="preserve">07.08.2020 12:10</t>
@@ -252,19 +252,19 @@
     <t xml:space="preserve">50x095</t>
   </si>
   <si>
-    <t xml:space="preserve">14:53:17</t>
+    <t xml:space="preserve">15:09:16</t>
   </si>
   <si>
     <t xml:space="preserve">07.03.2020 10:44</t>
   </si>
   <si>
-    <t xml:space="preserve">14:53:40</t>
+    <t xml:space="preserve">15:09:41</t>
   </si>
   <si>
     <t xml:space="preserve">07.03.2020 11:12</t>
   </si>
   <si>
-    <t xml:space="preserve">14:54:03</t>
+    <t xml:space="preserve">15:10:06</t>
   </si>
   <si>
     <t xml:space="preserve">07.03.2020 11:41</t>
@@ -279,19 +279,19 @@
     <t xml:space="preserve">50x075</t>
   </si>
   <si>
-    <t xml:space="preserve">14:54:26</t>
+    <t xml:space="preserve">15:10:32</t>
   </si>
   <si>
     <t xml:space="preserve">07.03.2020 13:40</t>
   </si>
   <si>
-    <t xml:space="preserve">14:54:50</t>
+    <t xml:space="preserve">15:10:57</t>
   </si>
   <si>
     <t xml:space="preserve">07.03.2020 14:09</t>
   </si>
   <si>
-    <t xml:space="preserve">14:55:15</t>
+    <t xml:space="preserve">15:11:22</t>
   </si>
   <si>
     <t xml:space="preserve">07.03.2020 14:39</t>
@@ -312,19 +312,19 @@
     <t xml:space="preserve">B2</t>
   </si>
   <si>
-    <t xml:space="preserve">14:55:40</t>
+    <t xml:space="preserve">15:11:47</t>
   </si>
   <si>
     <t xml:space="preserve">7/13/2020 12:17:59 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:56:03</t>
+    <t xml:space="preserve">15:12:11</t>
   </si>
   <si>
     <t xml:space="preserve">7/13/2020 12:34:31 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:56:26</t>
+    <t xml:space="preserve">15:12:35</t>
   </si>
   <si>
     <t xml:space="preserve">7/13/2020 12:49:15 PM</t>
@@ -333,19 +333,19 @@
     <t xml:space="preserve">MU-021</t>
   </si>
   <si>
-    <t xml:space="preserve">14:56:50</t>
+    <t xml:space="preserve">15:12:58</t>
   </si>
   <si>
     <t xml:space="preserve">07.08.2020 15:38</t>
   </si>
   <si>
-    <t xml:space="preserve">14:57:14</t>
+    <t xml:space="preserve">15:13:21</t>
   </si>
   <si>
     <t xml:space="preserve">07.08.2020 15:51</t>
   </si>
   <si>
-    <t xml:space="preserve">14:57:38</t>
+    <t xml:space="preserve">15:13:44</t>
   </si>
   <si>
     <t xml:space="preserve">07.08.2020 16:06</t>
@@ -354,817 +354,934 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">14:58:03</t>
+    <t xml:space="preserve">15:14:08</t>
   </si>
   <si>
     <t xml:space="preserve">07.08.2020 14:43</t>
   </si>
   <si>
+    <t xml:space="preserve">15:14:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 15:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:14:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 15:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:15:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 1:53:18 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:15:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 2:09:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:16:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 2:28:39 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 12:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:16:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 13:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:17:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 13:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:18:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 14:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:18:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 14:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradnick spall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:18:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 10:23:15 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 10:43:18 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:19:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 11:03:05 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:20:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 14:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:20:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 15:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:20:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 15:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:21:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 15:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:21:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 16:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 16:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:22:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.03.2020 15:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:22:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.03.2020 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:23:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.03.2020 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:23:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 10:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 11:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:24:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 11:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:24:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 11:19:01 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:25:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 11:32:17 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:25:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 11:44:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:25:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 3:50:57 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:26:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 4:11:21 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:26:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 4:26:08 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:27:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 4:51:47 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:27:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 5:05:42 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:27:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 5:21:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:28:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 17:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:28:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 17:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:29:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 09:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:29:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 10:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:29:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 11:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 11:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 14:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:31:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 15:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:31:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 15:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:31:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 11:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:32:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 12:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:32:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020 13:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:33:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 2:31:09 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:33:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 3:00:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:33:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 3:18:31 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:34:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 14:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:34:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:35:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 15:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:35:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 13:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:35:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 13:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:36:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 14:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:36:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 10:39:03 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:37:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 10:57:11 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:37:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 11:43:20 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C+A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:37:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 1:11:19 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:38:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 1:28:17 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:38:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 1:45:33 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:38:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 12:10:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:39:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 12:19:59 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:39:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 12:31:15 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:40:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 12:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:40:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 13:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:40:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 13:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:41:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 15:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:41:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 15:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:42:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2020 16:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:42:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 2:46:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:42:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 2:58:24 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:43:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/13/2020 3:09:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:43:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 16:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:43:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 16:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:44:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.2020 17:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:44:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 12:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:45:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 12:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:45:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 12:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:45:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 10:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:46:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 10:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:46:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020 11:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:54:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 10:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:55:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:55:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 11:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:56:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:56:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 17:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:56:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 17:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:57:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 16:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:57:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 16:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:58:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 16:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradnick scraper</t>
+  </si>
+  <si>
     <t xml:space="preserve">14:58:28</t>
   </si>
   <si>
-    <t xml:space="preserve">07.08.2020 15:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:58:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 15:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:59:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 1:53:18 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:59:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 2:09:03 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 2:28:39 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 12:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 13:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:01:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 13:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:01:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 13:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:02:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 14:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:02:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 14:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradnick spall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:03:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 10:23:15 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:03:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 10:43:18 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:04:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 11:03:05 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:04:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 14:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:04:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 15:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:05:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 15:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:05:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 15:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:06:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 16:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:06:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 16:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:07:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.03.2020 15:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:07:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.03.2020 16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:07:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.03.2020 16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:08:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 10:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:08:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 11:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:09:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 11:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:09:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 11:19:01 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 11:32:17 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:10:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 11:44:35 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:10:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 3:50:57 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:11:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 4:11:21 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:11:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 4:26:08 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:12:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 4:51:47 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:12:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 5:05:42 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:12:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 5:21:48 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:13:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 17:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:13:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 17:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:14:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 09:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:14:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 10:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:15:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 11:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:15:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 11:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:15:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 14:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:16:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 15:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:16:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 15:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:17:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 11:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:17:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 12:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:18:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.2020 13:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:18:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 2:31:09 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:18:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 3:00:44 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:19:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 3:18:31 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:19:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 14:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:20:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:20:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 15:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:21:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 13:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:21:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 13:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:21:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 14:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:22:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 10:39:03 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:22:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 10:57:11 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:23:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 11:43:20 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C+A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:23:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 1:11:19 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:24:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 1:28:17 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:24:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 1:45:33 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:24:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 12:10:05 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:25:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 12:19:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:25:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/14/2020 12:31:15 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:26:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 12:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:26:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 13:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:27:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 13:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:27:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 15:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:27:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 15:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:28:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.2020 16:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:28:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 2:46:11 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:29:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 2:58:24 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:29:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/13/2020 3:09:48 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU-020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:29:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 16:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 16:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.2020 17:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:31:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 12:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:31:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 12:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:32:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 12:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:32:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 10:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:32:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 10:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:33:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.09.2020 11:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:33:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 10:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:33:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:33:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 11:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-032</t>
+    <t xml:space="preserve">07.02.2020 13:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:58:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:59:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 13:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:59:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 12:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 13:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 13:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU-173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 15:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:01:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 15:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:01:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.2020 16:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramioul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:31:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 09:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:31:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:32:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2020 10:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:32:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2020 2:23:58 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:33:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2020 2:45:54 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:33:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2020 2:57:14 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:33:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 5:08:57 PM</t>
   </si>
   <si>
     <t xml:space="preserve">14:34:19</t>
   </si>
   <si>
-    <t xml:space="preserve">07.01.2020 17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:34:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 17:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:35:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 17:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:35:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 16:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:35:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 16:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:36:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 16:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradnick scraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:36:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 13:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:37:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 13:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:37:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 13:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:38:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 12:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:38:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 13:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:38:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 13:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:39:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 15:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:39:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 15:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:40:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.02.2020 16:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramioul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:09:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.01.2020 09:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:09:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:10:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:10:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:11:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:11:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:11:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:12:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:12:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:13:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:13:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:13:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:14:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:14:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:15:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:15:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:16:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:16:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:17:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:17:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:18:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:18:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:19:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:19:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:20:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:20:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:20:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:21:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:21:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:22:11</t>
+    <t xml:space="preserve">6/30/2020 5:26:52 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:34:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 5:36:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2020 3:23:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2020 4:00:53 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2020 4:12:31 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:36:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 3:43:13 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:36:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 3:52:20 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:37:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 4:03:01 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:37:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 3:04:07 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:37:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 3:16:46 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:38:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 3:28:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:38:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2020 10:25:23 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:38:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2020 10:38:31 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:39:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2020 11:05:37 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:39:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 4:45:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:40:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 5:02:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:40:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/14/2020 5:27:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:40:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 2:06:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:41:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 2:28:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:41:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 2:46:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:42:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2020 11:50:06 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:42:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2020 12:07:21 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:42:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2020 12:27:07 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:43:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 4:26:29 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:43:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 4:40:01 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:44:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/30/2020 4:52:37 PM</t>
   </si>
   <si>
     <t xml:space="preserve">variable</t>
@@ -1227,7 +1344,7 @@
     <t xml:space="preserve">Smc (p = 10.00%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sxp (p = 50.00%, q = 97.50%)</t>
+    <t xml:space="preserve">Sxp (p = 50.00%  q = 97.50%)</t>
   </si>
   <si>
     <t xml:space="preserve">Sal (s = 0.2000)</t>
@@ -1254,10 +1371,10 @@
     <t xml:space="preserve">Vmp (p = 10.00%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vmc (p = 10.00%, q = 80.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vvc (p = 10.00%, q = 80.00%)</t>
+    <t xml:space="preserve">Vmc (p = 10.00%  q = 80.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vvc (p = 10.00%  q = 80.00%)</t>
   </si>
   <si>
     <t xml:space="preserve">Vvv (p = 80.00%)</t>
@@ -1845,7 +1962,7 @@
         <v>66</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -2018,7 +2135,7 @@
         <v>66</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L3" t="s">
         <v>70</v>
@@ -2191,7 +2308,7 @@
         <v>66</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L4" t="s">
         <v>73</v>
@@ -2364,7 +2481,7 @@
         <v>78</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L5" t="s">
         <v>79</v>
@@ -2537,7 +2654,7 @@
         <v>78</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L6" t="s">
         <v>81</v>
@@ -2710,7 +2827,7 @@
         <v>78</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L7" t="s">
         <v>83</v>
@@ -2883,7 +3000,7 @@
         <v>87</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L8" t="s">
         <v>88</v>
@@ -3056,7 +3173,7 @@
         <v>87</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L9" t="s">
         <v>90</v>
@@ -3229,7 +3346,7 @@
         <v>87</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L10" t="s">
         <v>92</v>
@@ -3402,7 +3519,7 @@
         <v>78</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L11" t="s">
         <v>99</v>
@@ -3575,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -3748,7 +3865,7 @@
         <v>78</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L13" t="s">
         <v>103</v>
@@ -3921,7 +4038,7 @@
         <v>78</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L14" t="s">
         <v>106</v>
@@ -4094,7 +4211,7 @@
         <v>78</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L15" t="s">
         <v>108</v>
@@ -4267,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L16" t="s">
         <v>110</v>
@@ -4440,7 +4557,7 @@
         <v>78</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L17" t="s">
         <v>113</v>
@@ -4613,7 +4730,7 @@
         <v>78</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L18" t="s">
         <v>115</v>
@@ -4786,7 +4903,7 @@
         <v>78</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L19" t="s">
         <v>117</v>
@@ -4959,7 +5076,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L20" t="s">
         <v>120</v>
@@ -5130,7 +5247,7 @@
         <v>78</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L21" t="s">
         <v>122</v>
@@ -5303,7 +5420,7 @@
         <v>78</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L22" t="s">
         <v>124</v>
@@ -5476,7 +5593,7 @@
         <v>78</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L23" t="s">
         <v>127</v>
@@ -5649,7 +5766,7 @@
         <v>78</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L24" t="s">
         <v>129</v>
@@ -5822,7 +5939,7 @@
         <v>78</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L25" t="s">
         <v>131</v>
@@ -5995,7 +6112,7 @@
         <v>78</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L26" t="s">
         <v>133</v>
@@ -6168,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L27" t="s">
         <v>135</v>
@@ -6341,7 +6458,7 @@
         <v>78</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L28" t="s">
         <v>137</v>
@@ -6514,7 +6631,7 @@
         <v>78</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L29" t="s">
         <v>142</v>
@@ -6687,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L30" t="s">
         <v>144</v>
@@ -6860,7 +6977,7 @@
         <v>78</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L31" t="s">
         <v>146</v>
@@ -7033,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L32" t="s">
         <v>149</v>
@@ -7206,7 +7323,7 @@
         <v>78</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L33" t="s">
         <v>151</v>
@@ -7379,7 +7496,7 @@
         <v>78</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L34" t="s">
         <v>153</v>
@@ -7552,7 +7669,7 @@
         <v>87</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L35" t="s">
         <v>155</v>
@@ -7723,7 +7840,7 @@
         <v>87</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L36" t="s">
         <v>157</v>
@@ -7896,7 +8013,7 @@
         <v>87</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L37" t="s">
         <v>159</v>
@@ -8069,7 +8186,7 @@
         <v>87</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L38" t="s">
         <v>162</v>
@@ -8242,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L39" t="s">
         <v>164</v>
@@ -8415,7 +8532,7 @@
         <v>87</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L40" t="s">
         <v>166</v>
@@ -8588,7 +8705,7 @@
         <v>78</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L41" t="s">
         <v>169</v>
@@ -8761,7 +8878,7 @@
         <v>78</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L42" t="s">
         <v>171</v>
@@ -8934,7 +9051,7 @@
         <v>78</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L43" t="s">
         <v>173</v>
@@ -9105,7 +9222,7 @@
         <v>78</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L44" t="s">
         <v>176</v>
@@ -9278,7 +9395,7 @@
         <v>78</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L45" t="s">
         <v>178</v>
@@ -9451,7 +9568,7 @@
         <v>78</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L46" t="s">
         <v>180</v>
@@ -9624,7 +9741,7 @@
         <v>87</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L47" t="s">
         <v>185</v>
@@ -9797,7 +9914,7 @@
         <v>87</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L48" t="s">
         <v>187</v>
@@ -9970,7 +10087,7 @@
         <v>87</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L49" t="s">
         <v>189</v>
@@ -10143,7 +10260,7 @@
         <v>78</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L50" t="s">
         <v>191</v>
@@ -10316,7 +10433,7 @@
         <v>78</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L51" t="s">
         <v>193</v>
@@ -10489,7 +10606,7 @@
         <v>78</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L52" t="s">
         <v>195</v>
@@ -10662,7 +10779,7 @@
         <v>78</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L53" t="s">
         <v>198</v>
@@ -10835,7 +10952,7 @@
         <v>78</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L54" t="s">
         <v>200</v>
@@ -11008,7 +11125,7 @@
         <v>78</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L55" t="s">
         <v>202</v>
@@ -11181,7 +11298,7 @@
         <v>87</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L56" t="s">
         <v>204</v>
@@ -11354,7 +11471,7 @@
         <v>87</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L57" t="s">
         <v>206</v>
@@ -11527,7 +11644,7 @@
         <v>87</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L58" t="s">
         <v>208</v>
@@ -11700,7 +11817,7 @@
         <v>78</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L59" t="s">
         <v>211</v>
@@ -11873,7 +11990,7 @@
         <v>78</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L60" t="s">
         <v>213</v>
@@ -12046,7 +12163,7 @@
         <v>78</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L61" t="s">
         <v>215</v>
@@ -12219,7 +12336,7 @@
         <v>78</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L62" t="s">
         <v>217</v>
@@ -12392,7 +12509,7 @@
         <v>78</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L63" t="s">
         <v>219</v>
@@ -12565,7 +12682,7 @@
         <v>78</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L64" t="s">
         <v>221</v>
@@ -12738,7 +12855,7 @@
         <v>78</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L65" t="s">
         <v>224</v>
@@ -12911,7 +13028,7 @@
         <v>78</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L66" t="s">
         <v>226</v>
@@ -13084,7 +13201,7 @@
         <v>78</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L67" t="s">
         <v>228</v>
@@ -13257,7 +13374,7 @@
         <v>87</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L68" t="s">
         <v>231</v>
@@ -13428,7 +13545,7 @@
         <v>87</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L69" t="s">
         <v>233</v>
@@ -13601,7 +13718,7 @@
         <v>87</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L70" t="s">
         <v>235</v>
@@ -13774,7 +13891,7 @@
         <v>87</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L71" t="s">
         <v>237</v>
@@ -13945,7 +14062,7 @@
         <v>87</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L72" t="s">
         <v>239</v>
@@ -14118,7 +14235,7 @@
         <v>87</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L73" t="s">
         <v>241</v>
@@ -14291,7 +14408,7 @@
         <v>87</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L74" t="s">
         <v>244</v>
@@ -14464,7 +14581,7 @@
         <v>87</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L75" t="s">
         <v>246</v>
@@ -14637,7 +14754,7 @@
         <v>87</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L76" t="s">
         <v>248</v>
@@ -14810,7 +14927,7 @@
         <v>78</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L77" t="s">
         <v>252</v>
@@ -14983,7 +15100,7 @@
         <v>78</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L78" t="s">
         <v>254</v>
@@ -15156,7 +15273,7 @@
         <v>78</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L79" t="s">
         <v>256</v>
@@ -15329,7 +15446,7 @@
         <v>78</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L80" t="s">
         <v>258</v>
@@ -15502,7 +15619,7 @@
         <v>78</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L81" t="s">
         <v>260</v>
@@ -15675,7 +15792,7 @@
         <v>78</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L82" t="s">
         <v>262</v>
@@ -15848,7 +15965,7 @@
         <v>78</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L83" t="s">
         <v>265</v>
@@ -16021,7 +16138,7 @@
         <v>78</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L84" t="s">
         <v>267</v>
@@ -16194,7 +16311,7 @@
         <v>78</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L85" t="s">
         <v>269</v>
@@ -16367,7 +16484,7 @@
         <v>87</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L86" t="s">
         <v>272</v>
@@ -16540,7 +16657,7 @@
         <v>87</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L87" t="s">
         <v>274</v>
@@ -16713,7 +16830,7 @@
         <v>87</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L88" t="s">
         <v>276</v>
@@ -16886,7 +17003,7 @@
         <v>78</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L89" t="s">
         <v>279</v>
@@ -17059,7 +17176,7 @@
         <v>78</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L90" t="s">
         <v>281</v>
@@ -17232,7 +17349,7 @@
         <v>78</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L91" t="s">
         <v>283</v>
@@ -17405,7 +17522,7 @@
         <v>78</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L92" t="s">
         <v>286</v>
@@ -17578,7 +17695,7 @@
         <v>78</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L93" t="s">
         <v>288</v>
@@ -17751,7 +17868,7 @@
         <v>78</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L94" t="s">
         <v>290</v>
@@ -17924,7 +18041,7 @@
         <v>78</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L95" t="s">
         <v>292</v>
@@ -18097,7 +18214,7 @@
         <v>78</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L96" t="s">
         <v>294</v>
@@ -18270,7 +18387,7 @@
         <v>78</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L97" t="s">
         <v>296</v>
@@ -18443,7 +18560,7 @@
         <v>78</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L98" t="s">
         <v>298</v>
@@ -18616,7 +18733,7 @@
         <v>78</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L99" t="s">
         <v>300</v>
@@ -18789,7 +18906,7 @@
         <v>78</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L100" t="s">
         <v>302</v>
@@ -18962,7 +19079,7 @@
         <v>78</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L101" t="s">
         <v>306</v>
@@ -19135,7 +19252,7 @@
         <v>78</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L102" t="s">
         <v>308</v>
@@ -19308,7 +19425,7 @@
         <v>78</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L103" t="s">
         <v>310</v>
@@ -19481,7 +19598,7 @@
         <v>78</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L104" t="s">
         <v>313</v>
@@ -19654,7 +19771,7 @@
         <v>78</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L105" t="s">
         <v>315</v>
@@ -19827,7 +19944,7 @@
         <v>78</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L106" t="s">
         <v>317</v>
@@ -20000,7 +20117,7 @@
         <v>78</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L107" t="s">
         <v>320</v>
@@ -20173,7 +20290,7 @@
         <v>78</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L108" t="s">
         <v>322</v>
@@ -20346,7 +20463,7 @@
         <v>78</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L109" t="s">
         <v>324</v>
@@ -20519,7 +20636,7 @@
         <v>78</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L110" t="s">
         <v>328</v>
@@ -20692,7 +20809,7 @@
         <v>78</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L111" t="s">
         <v>330</v>
@@ -20865,7 +20982,7 @@
         <v>78</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L112" t="s">
         <v>332</v>
@@ -21038,7 +21155,7 @@
         <v>78</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L113" t="s">
         <v>335</v>
@@ -21211,7 +21328,7 @@
         <v>78</v>
       </c>
       <c r="K114" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L114" t="s">
         <v>337</v>
@@ -21384,7 +21501,7 @@
         <v>78</v>
       </c>
       <c r="K115" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L115" t="s">
         <v>339</v>
@@ -21557,7 +21674,7 @@
         <v>78</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L116" t="s">
         <v>342</v>
@@ -21730,7 +21847,7 @@
         <v>78</v>
       </c>
       <c r="K117" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L117" t="s">
         <v>344</v>
@@ -21903,7 +22020,7 @@
         <v>78</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L118" t="s">
         <v>346</v>
@@ -22076,7 +22193,7 @@
         <v>78</v>
       </c>
       <c r="K119" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L119" t="s">
         <v>350</v>
@@ -22240,7 +22357,7 @@
         <v>63</v>
       </c>
       <c r="H120" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I120" t="s">
         <v>76</v>
@@ -22249,13 +22366,13 @@
         <v>78</v>
       </c>
       <c r="K120" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L120" t="s">
         <v>352</v>
       </c>
       <c r="M120" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N120" t="n">
         <v>255.4748056</v>
@@ -22276,118 +22393,118 @@
         <v>0.213429245</v>
       </c>
       <c r="T120" t="n">
-        <v>20213.11055</v>
+        <v>29800.637</v>
       </c>
       <c r="U120" t="n">
-        <v>66293</v>
+        <v>65752</v>
       </c>
       <c r="V120" t="n">
-        <v>0.304905655</v>
+        <v>0.453227841</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
       </c>
       <c r="X120" t="n">
-        <v>965.6698832</v>
+        <v>1119.746817</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.223698651</v>
+        <v>0.089666076</v>
       </c>
       <c r="Z120" t="n">
-        <v>3.305367398</v>
+        <v>2.990346602</v>
       </c>
       <c r="AA120" t="n">
-        <v>2982.770056</v>
+        <v>3224.172216</v>
       </c>
       <c r="AB120" t="n">
-        <v>3794.642342</v>
+        <v>3548.320767</v>
       </c>
       <c r="AC120" t="n">
-        <v>6777.412398</v>
+        <v>6772.492983</v>
       </c>
       <c r="AD120" t="n">
-        <v>753.1662694</v>
+        <v>896.500834</v>
       </c>
       <c r="AE120" t="n">
-        <v>3.36939136</v>
+        <v>2.624439264</v>
       </c>
       <c r="AF120" t="n">
-        <v>1286.370713</v>
+        <v>1488.448502</v>
       </c>
       <c r="AG120" t="n">
-        <v>1714.056906</v>
+        <v>2071.89361</v>
       </c>
       <c r="AH120" t="n">
-        <v>20.8354156</v>
+        <v>23.14006082</v>
       </c>
       <c r="AI120" t="n">
-        <v>0.286866253</v>
+        <v>0.602646878</v>
       </c>
       <c r="AJ120" t="n">
-        <v>98.49823473</v>
+        <v>47.76140331</v>
       </c>
       <c r="AK120" t="n">
-        <v>0.18024731</v>
+        <v>0.165695428</v>
       </c>
       <c r="AL120" t="n">
-        <v>1.545220979</v>
+        <v>1.344574865</v>
       </c>
       <c r="AM120" t="n">
-        <v>0.056528148</v>
+        <v>0.052545671</v>
       </c>
       <c r="AN120" t="n">
-        <v>1.342889309</v>
+        <v>1.54101504</v>
       </c>
       <c r="AO120" t="n">
-        <v>0.056528148</v>
+        <v>0.052545671</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.838905952</v>
+        <v>0.988707024</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.242258083</v>
+        <v>1.423688806</v>
       </c>
       <c r="AR120" t="n">
-        <v>0.100631226</v>
+        <v>0.117326235</v>
       </c>
       <c r="AS120" t="n">
-        <v>4680.149344</v>
+        <v>4100.080341</v>
       </c>
       <c r="AT120" t="n">
-        <v>1003.094218</v>
+        <v>1139.981726</v>
       </c>
       <c r="AU120" t="n">
-        <v>2236.279395</v>
+        <v>2273.616025</v>
       </c>
       <c r="AV120" t="n">
-        <v>135.014308</v>
+        <v>45.01209364</v>
       </c>
       <c r="AW120" t="n">
-        <v>90.00996958</v>
+        <v>0.009655241</v>
       </c>
       <c r="AX120" t="n">
-        <v>153.4974777</v>
+        <v>90.02883621</v>
       </c>
       <c r="AY120" t="n">
-        <v>53.47867338</v>
+        <v>45.74561992</v>
       </c>
       <c r="AZ120" t="n">
-        <v>0.003935162</v>
+        <v>0.001792671</v>
       </c>
       <c r="BA120" t="n">
-        <v>0.018107507</v>
+        <v>0.018407077</v>
       </c>
       <c r="BB120" t="n">
-        <v>2.288328872</v>
+        <v>1.710990706</v>
       </c>
       <c r="BC120" t="n">
-        <v>9.024672658</v>
+        <v>7.890413111</v>
       </c>
       <c r="BD120" t="n">
-        <v>0.215684673</v>
+        <v>0.169997016</v>
       </c>
       <c r="BE120" t="n">
-        <v>0.447530274</v>
+        <v>0.41191092</v>
       </c>
     </row>
     <row r="121">
@@ -22413,7 +22530,7 @@
         <v>63</v>
       </c>
       <c r="H121" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I121" t="s">
         <v>76</v>
@@ -22422,13 +22539,13 @@
         <v>78</v>
       </c>
       <c r="K121" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M121" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N121" t="n">
         <v>255.4748056</v>
@@ -22449,123 +22566,121 @@
         <v>0.213429245</v>
       </c>
       <c r="T121" t="n">
-        <v>20213.11055</v>
+        <v>24918.14865</v>
       </c>
       <c r="U121" t="n">
-        <v>66293</v>
+        <v>66000</v>
       </c>
       <c r="V121" t="n">
-        <v>0.304905655</v>
+        <v>0.377547707</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>965.6698832</v>
+        <v>998.5294723</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.223698651</v>
+        <v>-0.551565041</v>
       </c>
       <c r="Z121" t="n">
-        <v>3.305367398</v>
+        <v>4.199949151</v>
       </c>
       <c r="AA121" t="n">
-        <v>2982.770056</v>
+        <v>2620.332105</v>
       </c>
       <c r="AB121" t="n">
-        <v>3794.642342</v>
+        <v>4338.513964</v>
       </c>
       <c r="AC121" t="n">
-        <v>6777.412398</v>
+        <v>6958.846069</v>
       </c>
       <c r="AD121" t="n">
-        <v>753.1662694</v>
+        <v>773.2283495</v>
       </c>
       <c r="AE121" t="n">
-        <v>3.36939136</v>
+        <v>4.047806712</v>
       </c>
       <c r="AF121" t="n">
-        <v>1286.370713</v>
+        <v>1226.835782</v>
       </c>
       <c r="AG121" t="n">
-        <v>1714.056906</v>
+        <v>2334.161186</v>
       </c>
       <c r="AH121" t="n">
-        <v>20.8354156</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>0.286866253</v>
-      </c>
+        <v>22.92915807</v>
+      </c>
+      <c r="AI121"/>
       <c r="AJ121" t="n">
-        <v>98.49823473</v>
+        <v>93.50368083</v>
       </c>
       <c r="AK121" t="n">
-        <v>0.18024731</v>
+        <v>0.174190009</v>
       </c>
       <c r="AL121" t="n">
-        <v>1.545220979</v>
+        <v>1.481525752</v>
       </c>
       <c r="AM121" t="n">
-        <v>0.056528148</v>
+        <v>0.04013832</v>
       </c>
       <c r="AN121" t="n">
-        <v>1.342889309</v>
+        <v>1.266984297</v>
       </c>
       <c r="AO121" t="n">
-        <v>0.056528148</v>
+        <v>0.04013832</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.838905952</v>
+        <v>0.830803437</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.242258083</v>
+        <v>1.131576279</v>
       </c>
       <c r="AR121" t="n">
-        <v>0.100631226</v>
+        <v>0.135408018</v>
       </c>
       <c r="AS121" t="n">
-        <v>4680.149344</v>
+        <v>3932.593547</v>
       </c>
       <c r="AT121" t="n">
-        <v>1003.094218</v>
+        <v>843.7165624</v>
       </c>
       <c r="AU121" t="n">
-        <v>2236.279395</v>
+        <v>2433.140888</v>
       </c>
       <c r="AV121" t="n">
-        <v>135.014308</v>
+        <v>89.99626262</v>
       </c>
       <c r="AW121" t="n">
-        <v>90.00996958</v>
+        <v>45.02832832</v>
       </c>
       <c r="AX121" t="n">
-        <v>153.4974777</v>
+        <v>63.51547954</v>
       </c>
       <c r="AY121" t="n">
-        <v>53.47867338</v>
+        <v>59.25091105</v>
       </c>
       <c r="AZ121" t="n">
-        <v>0.003935162</v>
+        <v>0.002986136</v>
       </c>
       <c r="BA121" t="n">
-        <v>0.018107507</v>
+        <v>0.01649434</v>
       </c>
       <c r="BB121" t="n">
-        <v>2.288328872</v>
+        <v>2.393323227</v>
       </c>
       <c r="BC121" t="n">
-        <v>9.024672658</v>
+        <v>5.639887625</v>
       </c>
       <c r="BD121" t="n">
-        <v>0.215684673</v>
+        <v>0.208989814</v>
       </c>
       <c r="BE121" t="n">
-        <v>0.447530274</v>
+        <v>0.375448041</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B122" t="s">
         <v>349</v>
@@ -22577,10 +22692,10 @@
         <v>183</v>
       </c>
       <c r="E122" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G122" t="s">
         <v>63</v>
@@ -22589,19 +22704,19 @@
         <v>64</v>
       </c>
       <c r="I122" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J122" t="s">
         <v>78</v>
       </c>
       <c r="K122" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L122" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M122" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N122" t="n">
         <v>255.4748056</v>
@@ -22622,123 +22737,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T122" t="n">
-        <v>20213.11055</v>
+        <v>19904.03127</v>
       </c>
       <c r="U122" t="n">
-        <v>66293</v>
+        <v>64741</v>
       </c>
       <c r="V122" t="n">
-        <v>0.304905655</v>
+        <v>0.307440899</v>
       </c>
       <c r="W122" t="n">
         <v>0</v>
       </c>
       <c r="X122" t="n">
-        <v>965.6698832</v>
+        <v>614.6397547</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.223698651</v>
+        <v>-0.904346345</v>
       </c>
       <c r="Z122" t="n">
-        <v>3.305367398</v>
+        <v>5.610191103</v>
       </c>
       <c r="AA122" t="n">
-        <v>2982.770056</v>
+        <v>1701.070496</v>
       </c>
       <c r="AB122" t="n">
-        <v>3794.642342</v>
+        <v>3114.806728</v>
       </c>
       <c r="AC122" t="n">
-        <v>6777.412398</v>
+        <v>4815.877225</v>
       </c>
       <c r="AD122" t="n">
-        <v>753.1662694</v>
+        <v>457.3913996</v>
       </c>
       <c r="AE122" t="n">
-        <v>3.36939136</v>
+        <v>10.12424051</v>
       </c>
       <c r="AF122" t="n">
-        <v>1286.370713</v>
+        <v>704.6877281</v>
       </c>
       <c r="AG122" t="n">
-        <v>1714.056906</v>
+        <v>1447.792202</v>
       </c>
       <c r="AH122" t="n">
-        <v>20.8354156</v>
+        <v>27.31430557</v>
       </c>
       <c r="AI122" t="n">
-        <v>0.286866253</v>
+        <v>0.608074953</v>
       </c>
       <c r="AJ122" t="n">
-        <v>98.49823473</v>
+        <v>140.999159</v>
       </c>
       <c r="AK122" t="n">
-        <v>0.18024731</v>
+        <v>0.100838859</v>
       </c>
       <c r="AL122" t="n">
-        <v>1.545220979</v>
+        <v>0.500164618</v>
       </c>
       <c r="AM122" t="n">
-        <v>0.056528148</v>
+        <v>0.024797436</v>
       </c>
       <c r="AN122" t="n">
-        <v>1.342889309</v>
+        <v>0.729477244</v>
       </c>
       <c r="AO122" t="n">
-        <v>0.056528148</v>
+        <v>0.024797436</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.838905952</v>
+        <v>0.487232456</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.242258083</v>
+        <v>0.635111291</v>
       </c>
       <c r="AR122" t="n">
-        <v>0.100631226</v>
+        <v>0.094365952</v>
       </c>
       <c r="AS122" t="n">
-        <v>4680.149344</v>
+        <v>3276.397665</v>
       </c>
       <c r="AT122" t="n">
-        <v>1003.094218</v>
+        <v>643.8444633</v>
       </c>
       <c r="AU122" t="n">
-        <v>2236.279395</v>
+        <v>1678.009725</v>
       </c>
       <c r="AV122" t="n">
-        <v>135.014308</v>
+        <v>89.98830444</v>
       </c>
       <c r="AW122" t="n">
-        <v>90.00996958</v>
+        <v>135.0220561</v>
       </c>
       <c r="AX122" t="n">
-        <v>153.4974777</v>
+        <v>146.1702401</v>
       </c>
       <c r="AY122" t="n">
-        <v>53.47867338</v>
+        <v>81.99562779</v>
       </c>
       <c r="AZ122" t="n">
-        <v>0.003935162</v>
+        <v>0.002504044</v>
       </c>
       <c r="BA122" t="n">
-        <v>0.018107507</v>
+        <v>0.017391252</v>
       </c>
       <c r="BB122" t="n">
-        <v>2.288328872</v>
+        <v>0.690284456</v>
       </c>
       <c r="BC122" t="n">
-        <v>9.024672658</v>
+        <v>15.44394776</v>
       </c>
       <c r="BD122" t="n">
-        <v>0.215684673</v>
+        <v>0.324803729</v>
       </c>
       <c r="BE122" t="n">
-        <v>0.447530274</v>
+        <v>0.9398802</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B123" t="s">
         <v>349</v>
@@ -22750,31 +22865,31 @@
         <v>183</v>
       </c>
       <c r="E123" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F123" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G123" t="s">
         <v>63</v>
       </c>
       <c r="H123" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I123" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J123" t="s">
         <v>78</v>
       </c>
       <c r="K123" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L123" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M123" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="N123" t="n">
         <v>255.4748056</v>
@@ -22795,123 +22910,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T123" t="n">
-        <v>20213.11055</v>
+        <v>16588.21531</v>
       </c>
       <c r="U123" t="n">
-        <v>66293</v>
+        <v>68818</v>
       </c>
       <c r="V123" t="n">
-        <v>0.304905655</v>
+        <v>0.241044717</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>965.6698832</v>
+        <v>555.8779852</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.223698651</v>
+        <v>-0.520433723</v>
       </c>
       <c r="Z123" t="n">
-        <v>3.305367398</v>
+        <v>4.794460649</v>
       </c>
       <c r="AA123" t="n">
-        <v>2982.770056</v>
+        <v>1728.025469</v>
       </c>
       <c r="AB123" t="n">
-        <v>3794.642342</v>
+        <v>2814.944305</v>
       </c>
       <c r="AC123" t="n">
-        <v>6777.412398</v>
+        <v>4542.969774</v>
       </c>
       <c r="AD123" t="n">
-        <v>753.1662694</v>
+        <v>429.785153</v>
       </c>
       <c r="AE123" t="n">
-        <v>3.36939136</v>
+        <v>7.595916229</v>
       </c>
       <c r="AF123" t="n">
-        <v>1286.370713</v>
+        <v>659.6659564</v>
       </c>
       <c r="AG123" t="n">
-        <v>1714.056906</v>
+        <v>1138.29398</v>
       </c>
       <c r="AH123" t="n">
-        <v>20.8354156</v>
+        <v>25.8036046</v>
       </c>
       <c r="AI123" t="n">
-        <v>0.286866253</v>
+        <v>0.816387744</v>
       </c>
       <c r="AJ123" t="n">
-        <v>98.49823473</v>
+        <v>140.4951548</v>
       </c>
       <c r="AK123" t="n">
-        <v>0.18024731</v>
+        <v>0.087032426</v>
       </c>
       <c r="AL123" t="n">
-        <v>1.545220979</v>
+        <v>0.373738479</v>
       </c>
       <c r="AM123" t="n">
-        <v>0.056528148</v>
+        <v>0.024656222</v>
       </c>
       <c r="AN123" t="n">
-        <v>1.342889309</v>
+        <v>0.684321367</v>
       </c>
       <c r="AO123" t="n">
-        <v>0.056528148</v>
+        <v>0.024656222</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.838905952</v>
+        <v>0.452477358</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.242258083</v>
+        <v>0.611301186</v>
       </c>
       <c r="AR123" t="n">
-        <v>0.100631226</v>
+        <v>0.073020182</v>
       </c>
       <c r="AS123" t="n">
-        <v>4680.149344</v>
+        <v>2726.396529</v>
       </c>
       <c r="AT123" t="n">
-        <v>1003.094218</v>
+        <v>553.9610828</v>
       </c>
       <c r="AU123" t="n">
-        <v>2236.279395</v>
+        <v>1652.592256</v>
       </c>
       <c r="AV123" t="n">
-        <v>135.014308</v>
+        <v>134.9823561</v>
       </c>
       <c r="AW123" t="n">
-        <v>90.00996958</v>
+        <v>90.00667551</v>
       </c>
       <c r="AX123" t="n">
-        <v>153.4974777</v>
+        <v>146.2312596</v>
       </c>
       <c r="AY123" t="n">
-        <v>53.47867338</v>
+        <v>68.91214307</v>
       </c>
       <c r="AZ123" t="n">
-        <v>0.003935162</v>
+        <v>0.001237445</v>
       </c>
       <c r="BA123" t="n">
-        <v>0.018107507</v>
+        <v>0.017423268</v>
       </c>
       <c r="BB123" t="n">
-        <v>2.288328872</v>
+        <v>0.494673485</v>
       </c>
       <c r="BC123" t="n">
-        <v>9.024672658</v>
+        <v>17.66404003</v>
       </c>
       <c r="BD123" t="n">
-        <v>0.215684673</v>
+        <v>0.491859827</v>
       </c>
       <c r="BE123" t="n">
-        <v>0.447530274</v>
+        <v>0.959382037</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B124" t="s">
         <v>349</v>
@@ -22923,31 +23038,31 @@
         <v>183</v>
       </c>
       <c r="E124" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F124" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G124" t="s">
         <v>63</v>
       </c>
       <c r="H124" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I124" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J124" t="s">
         <v>78</v>
       </c>
       <c r="K124" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L124" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M124" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="N124" t="n">
         <v>255.4748056</v>
@@ -22968,123 +23083,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T124" t="n">
-        <v>20213.11055</v>
+        <v>15188.66784</v>
       </c>
       <c r="U124" t="n">
-        <v>66293</v>
+        <v>67529</v>
       </c>
       <c r="V124" t="n">
-        <v>0.304905655</v>
+        <v>0.224920669</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
       </c>
       <c r="X124" t="n">
-        <v>965.6698832</v>
+        <v>602.7744101</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.223698651</v>
+        <v>-0.5273472</v>
       </c>
       <c r="Z124" t="n">
-        <v>3.305367398</v>
+        <v>3.361822558</v>
       </c>
       <c r="AA124" t="n">
-        <v>2982.770056</v>
+        <v>1315.178626</v>
       </c>
       <c r="AB124" t="n">
-        <v>3794.642342</v>
+        <v>2372.013373</v>
       </c>
       <c r="AC124" t="n">
-        <v>6777.412398</v>
+        <v>3687.191999</v>
       </c>
       <c r="AD124" t="n">
-        <v>753.1662694</v>
+        <v>483.9866908</v>
       </c>
       <c r="AE124" t="n">
-        <v>3.36939136</v>
+        <v>32.14461069</v>
       </c>
       <c r="AF124" t="n">
-        <v>1286.370713</v>
+        <v>742.3168321</v>
       </c>
       <c r="AG124" t="n">
-        <v>1714.056906</v>
+        <v>1380.101117</v>
       </c>
       <c r="AH124" t="n">
-        <v>20.8354156</v>
+        <v>26.28511169</v>
       </c>
       <c r="AI124" t="n">
-        <v>0.286866253</v>
+        <v>0.438058806</v>
       </c>
       <c r="AJ124" t="n">
-        <v>98.49823473</v>
+        <v>140.0014589</v>
       </c>
       <c r="AK124" t="n">
-        <v>0.18024731</v>
+        <v>0.087700245</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.545220979</v>
+        <v>0.378073396</v>
       </c>
       <c r="AM124" t="n">
-        <v>0.056528148</v>
+        <v>0.018316491</v>
       </c>
       <c r="AN124" t="n">
-        <v>1.342889309</v>
+        <v>0.760636292</v>
       </c>
       <c r="AO124" t="n">
-        <v>0.056528148</v>
+        <v>0.018316491</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.838905952</v>
+        <v>0.545690345</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.242258083</v>
+        <v>0.679902379</v>
       </c>
       <c r="AR124" t="n">
-        <v>0.100631226</v>
+        <v>0.080733913</v>
       </c>
       <c r="AS124" t="n">
-        <v>4680.149344</v>
+        <v>2726.162212</v>
       </c>
       <c r="AT124" t="n">
-        <v>1003.094218</v>
+        <v>533.5406599</v>
       </c>
       <c r="AU124" t="n">
-        <v>2236.279395</v>
+        <v>1659.543754</v>
       </c>
       <c r="AV124" t="n">
-        <v>135.014308</v>
+        <v>135.0080953</v>
       </c>
       <c r="AW124" t="n">
-        <v>90.00996958</v>
+        <v>179.9786379</v>
       </c>
       <c r="AX124" t="n">
-        <v>153.4974777</v>
+        <v>123.7757579</v>
       </c>
       <c r="AY124" t="n">
-        <v>53.47867338</v>
+        <v>55.99068597</v>
       </c>
       <c r="AZ124" t="n">
-        <v>0.003935162</v>
+        <v>0.002280229</v>
       </c>
       <c r="BA124" t="n">
-        <v>0.018107507</v>
+        <v>0.01824015</v>
       </c>
       <c r="BB124" t="n">
-        <v>2.288328872</v>
+        <v>0.511922097</v>
       </c>
       <c r="BC124" t="n">
-        <v>9.024672658</v>
+        <v>15.44394776</v>
       </c>
       <c r="BD124" t="n">
-        <v>0.215684673</v>
+        <v>0.347615029</v>
       </c>
       <c r="BE124" t="n">
-        <v>0.447530274</v>
+        <v>1.133542123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s">
         <v>349</v>
@@ -23096,10 +23211,10 @@
         <v>183</v>
       </c>
       <c r="E125" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F125" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G125" t="s">
         <v>63</v>
@@ -23108,19 +23223,19 @@
         <v>64</v>
       </c>
       <c r="I125" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J125" t="s">
         <v>78</v>
       </c>
       <c r="K125" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L125" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M125" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="N125" t="n">
         <v>255.4748056</v>
@@ -23141,123 +23256,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T125" t="n">
-        <v>20213.11055</v>
+        <v>13308.80462</v>
       </c>
       <c r="U125" t="n">
-        <v>66293</v>
+        <v>63480</v>
       </c>
       <c r="V125" t="n">
-        <v>0.304905655</v>
+        <v>0.209653507</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
       </c>
       <c r="X125" t="n">
-        <v>965.6698832</v>
+        <v>381.5303444</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.223698651</v>
+        <v>-1.718761815</v>
       </c>
       <c r="Z125" t="n">
-        <v>3.305367398</v>
+        <v>8.243549197</v>
       </c>
       <c r="AA125" t="n">
-        <v>2982.770056</v>
+        <v>794.8593411</v>
       </c>
       <c r="AB125" t="n">
-        <v>3794.642342</v>
+        <v>2157.879686</v>
       </c>
       <c r="AC125" t="n">
-        <v>6777.412398</v>
+        <v>2952.739027</v>
       </c>
       <c r="AD125" t="n">
-        <v>753.1662694</v>
+        <v>269.9950165</v>
       </c>
       <c r="AE125" t="n">
-        <v>3.36939136</v>
+        <v>79.01469097</v>
       </c>
       <c r="AF125" t="n">
-        <v>1286.370713</v>
+        <v>393.4842448</v>
       </c>
       <c r="AG125" t="n">
-        <v>1714.056906</v>
+        <v>1062.000371</v>
       </c>
       <c r="AH125" t="n">
-        <v>20.8354156</v>
+        <v>17.44594663</v>
       </c>
       <c r="AI125" t="n">
-        <v>0.286866253</v>
+        <v>0.361476513</v>
       </c>
       <c r="AJ125" t="n">
-        <v>98.49823473</v>
+        <v>36.00238277</v>
       </c>
       <c r="AK125" t="n">
-        <v>0.18024731</v>
+        <v>0.111827374</v>
       </c>
       <c r="AL125" t="n">
-        <v>1.545220979</v>
+        <v>0.616872567</v>
       </c>
       <c r="AM125" t="n">
-        <v>0.056528148</v>
+        <v>0.010189035</v>
       </c>
       <c r="AN125" t="n">
-        <v>1.342889309</v>
+        <v>0.403671989</v>
       </c>
       <c r="AO125" t="n">
-        <v>0.056528148</v>
+        <v>0.010189035</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.838905952</v>
+        <v>0.280246878</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.242258083</v>
+        <v>0.333157352</v>
       </c>
       <c r="AR125" t="n">
-        <v>0.100631226</v>
+        <v>0.070514636</v>
       </c>
       <c r="AS125" t="n">
-        <v>4680.149344</v>
+        <v>2127.773443</v>
       </c>
       <c r="AT125" t="n">
-        <v>1003.094218</v>
+        <v>409.8755117</v>
       </c>
       <c r="AU125" t="n">
-        <v>2236.279395</v>
+        <v>2763.856011</v>
       </c>
       <c r="AV125" t="n">
-        <v>135.014308</v>
+        <v>179.9867476</v>
       </c>
       <c r="AW125" t="n">
-        <v>90.00996958</v>
+        <v>33.76482355</v>
       </c>
       <c r="AX125" t="n">
-        <v>153.4974777</v>
+        <v>135.0008173</v>
       </c>
       <c r="AY125" t="n">
-        <v>53.47867338</v>
+        <v>15.99658418</v>
       </c>
       <c r="AZ125" t="n">
-        <v>0.003935162</v>
+        <v>0.002030092</v>
       </c>
       <c r="BA125" t="n">
-        <v>0.018107507</v>
+        <v>0.01780705</v>
       </c>
       <c r="BB125" t="n">
-        <v>2.288328872</v>
+        <v>1.072220292</v>
       </c>
       <c r="BC125" t="n">
-        <v>9.024672658</v>
+        <v>3.524596806</v>
       </c>
       <c r="BD125" t="n">
-        <v>0.215684673</v>
+        <v>0.145966519</v>
       </c>
       <c r="BE125" t="n">
-        <v>0.447530274</v>
+        <v>0.361435986</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B126" t="s">
         <v>349</v>
@@ -23269,31 +23384,31 @@
         <v>183</v>
       </c>
       <c r="E126" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G126" t="s">
         <v>63</v>
       </c>
       <c r="H126" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I126" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J126" t="s">
         <v>78</v>
       </c>
       <c r="K126" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L126" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M126" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="N126" t="n">
         <v>255.4748056</v>
@@ -23314,123 +23429,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T126" t="n">
-        <v>20213.11055</v>
+        <v>30067.55833</v>
       </c>
       <c r="U126" t="n">
-        <v>66293</v>
+        <v>65467</v>
       </c>
       <c r="V126" t="n">
-        <v>0.304905655</v>
+        <v>0.459278084</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>965.6698832</v>
+        <v>911.7764552</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.223698651</v>
+        <v>-1.612833587</v>
       </c>
       <c r="Z126" t="n">
-        <v>3.305367398</v>
+        <v>9.720619701</v>
       </c>
       <c r="AA126" t="n">
-        <v>2982.770056</v>
+        <v>1956.937988</v>
       </c>
       <c r="AB126" t="n">
-        <v>3794.642342</v>
+        <v>6129.066031</v>
       </c>
       <c r="AC126" t="n">
-        <v>6777.412398</v>
+        <v>8086.004019</v>
       </c>
       <c r="AD126" t="n">
-        <v>753.1662694</v>
+        <v>643.2220489</v>
       </c>
       <c r="AE126" t="n">
-        <v>3.36939136</v>
+        <v>10.26370912</v>
       </c>
       <c r="AF126" t="n">
-        <v>1286.370713</v>
+        <v>967.8471986</v>
       </c>
       <c r="AG126" t="n">
-        <v>1714.056906</v>
+        <v>2100.7184</v>
       </c>
       <c r="AH126" t="n">
-        <v>20.8354156</v>
+        <v>27.92658345</v>
       </c>
       <c r="AI126" t="n">
-        <v>0.286866253</v>
+        <v>0.732014545</v>
       </c>
       <c r="AJ126" t="n">
-        <v>98.49823473</v>
+        <v>50.25102227</v>
       </c>
       <c r="AK126" t="n">
-        <v>0.18024731</v>
+        <v>0.149482471</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.545220979</v>
+        <v>1.075638359</v>
       </c>
       <c r="AM126" t="n">
-        <v>0.056528148</v>
+        <v>0.037144496</v>
       </c>
       <c r="AN126" t="n">
-        <v>1.342889309</v>
+        <v>1.004972794</v>
       </c>
       <c r="AO126" t="n">
-        <v>0.056528148</v>
+        <v>0.037144496</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.838905952</v>
+        <v>0.673568112</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.242258083</v>
+        <v>0.85495528</v>
       </c>
       <c r="AR126" t="n">
-        <v>0.100631226</v>
+        <v>0.150017514</v>
       </c>
       <c r="AS126" t="n">
-        <v>4680.149344</v>
+        <v>5271.456065</v>
       </c>
       <c r="AT126" t="n">
-        <v>1003.094218</v>
+        <v>696.7136118</v>
       </c>
       <c r="AU126" t="n">
-        <v>2236.279395</v>
+        <v>2374.362751</v>
       </c>
       <c r="AV126" t="n">
-        <v>135.014308</v>
+        <v>45.01352437</v>
       </c>
       <c r="AW126" t="n">
-        <v>90.00996958</v>
+        <v>0.00066581</v>
       </c>
       <c r="AX126" t="n">
-        <v>153.4974777</v>
+        <v>26.47938586</v>
       </c>
       <c r="AY126" t="n">
-        <v>53.47867338</v>
+        <v>68.8172432</v>
       </c>
       <c r="AZ126" t="n">
-        <v>0.003935162</v>
+        <v>0.003137733</v>
       </c>
       <c r="BA126" t="n">
-        <v>0.018107507</v>
+        <v>0.01832723</v>
       </c>
       <c r="BB126" t="n">
-        <v>2.288328872</v>
+        <v>1.395281429</v>
       </c>
       <c r="BC126" t="n">
-        <v>9.024672658</v>
+        <v>13.5028862</v>
       </c>
       <c r="BD126" t="n">
-        <v>0.215684673</v>
+        <v>0.716256268</v>
       </c>
       <c r="BE126" t="n">
-        <v>0.447530274</v>
+        <v>0.825116492</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B127" t="s">
         <v>349</v>
@@ -23442,31 +23557,31 @@
         <v>183</v>
       </c>
       <c r="E127" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F127" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G127" t="s">
         <v>63</v>
       </c>
       <c r="H127" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I127" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J127" t="s">
         <v>78</v>
       </c>
       <c r="K127" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L127" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M127" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="N127" t="n">
         <v>255.4748056</v>
@@ -23487,123 +23602,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T127" t="n">
-        <v>20213.11055</v>
+        <v>21801.30288</v>
       </c>
       <c r="U127" t="n">
-        <v>66293</v>
+        <v>65635</v>
       </c>
       <c r="V127" t="n">
-        <v>0.304905655</v>
+        <v>0.332159715</v>
       </c>
       <c r="W127" t="n">
         <v>0</v>
       </c>
       <c r="X127" t="n">
-        <v>965.6698832</v>
+        <v>741.2156792</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.223698651</v>
+        <v>-0.34815418</v>
       </c>
       <c r="Z127" t="n">
-        <v>3.305367398</v>
+        <v>3.431447137</v>
       </c>
       <c r="AA127" t="n">
-        <v>2982.770056</v>
+        <v>1819.30519</v>
       </c>
       <c r="AB127" t="n">
-        <v>3794.642342</v>
+        <v>2928.95115</v>
       </c>
       <c r="AC127" t="n">
-        <v>6777.412398</v>
+        <v>4748.25634</v>
       </c>
       <c r="AD127" t="n">
-        <v>753.1662694</v>
+        <v>591.4342901</v>
       </c>
       <c r="AE127" t="n">
-        <v>3.36939136</v>
+        <v>14.30942299</v>
       </c>
       <c r="AF127" t="n">
-        <v>1286.370713</v>
+        <v>940.7950645</v>
       </c>
       <c r="AG127" t="n">
-        <v>1714.056906</v>
+        <v>1525.2899</v>
       </c>
       <c r="AH127" t="n">
-        <v>20.8354156</v>
+        <v>29.65447069</v>
       </c>
       <c r="AI127" t="n">
-        <v>0.286866253</v>
+        <v>0.938230527</v>
       </c>
       <c r="AJ127" t="n">
-        <v>98.49823473</v>
+        <v>93.50352957</v>
       </c>
       <c r="AK127" t="n">
-        <v>0.18024731</v>
+        <v>0.121094433</v>
       </c>
       <c r="AL127" t="n">
-        <v>1.545220979</v>
+        <v>0.721385569</v>
       </c>
       <c r="AM127" t="n">
-        <v>0.056528148</v>
+        <v>0.026313167</v>
       </c>
       <c r="AN127" t="n">
-        <v>1.342889309</v>
+        <v>0.967092095</v>
       </c>
       <c r="AO127" t="n">
-        <v>0.056528148</v>
+        <v>0.026313167</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.838905952</v>
+        <v>0.664671857</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.242258083</v>
+        <v>0.879140066</v>
       </c>
       <c r="AR127" t="n">
-        <v>0.100631226</v>
+        <v>0.087952029</v>
       </c>
       <c r="AS127" t="n">
-        <v>4680.149344</v>
+        <v>2474.008596</v>
       </c>
       <c r="AT127" t="n">
-        <v>1003.094218</v>
+        <v>609.2455096</v>
       </c>
       <c r="AU127" t="n">
-        <v>2236.279395</v>
+        <v>2441.655989</v>
       </c>
       <c r="AV127" t="n">
-        <v>135.014308</v>
+        <v>89.9918202</v>
       </c>
       <c r="AW127" t="n">
-        <v>90.00996958</v>
+        <v>44.99803174</v>
       </c>
       <c r="AX127" t="n">
-        <v>153.4974777</v>
+        <v>134.9753333</v>
       </c>
       <c r="AY127" t="n">
-        <v>53.47867338</v>
+        <v>84.83551634</v>
       </c>
       <c r="AZ127" t="n">
-        <v>0.003935162</v>
+        <v>0.00133259</v>
       </c>
       <c r="BA127" t="n">
-        <v>0.018107507</v>
+        <v>0.017212442</v>
       </c>
       <c r="BB127" t="n">
-        <v>2.288328872</v>
+        <v>0.998283972</v>
       </c>
       <c r="BC127" t="n">
-        <v>9.024672658</v>
+        <v>4.610763815</v>
       </c>
       <c r="BD127" t="n">
-        <v>0.215684673</v>
+        <v>0.233210799</v>
       </c>
       <c r="BE127" t="n">
-        <v>0.447530274</v>
+        <v>0.379376662</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B128" t="s">
         <v>349</v>
@@ -23615,13 +23730,13 @@
         <v>183</v>
       </c>
       <c r="E128" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F128" t="s">
         <v>77</v>
       </c>
       <c r="G128" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="H128" t="s">
         <v>64</v>
@@ -23633,13 +23748,13 @@
         <v>78</v>
       </c>
       <c r="K128" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L128" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M128" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N128" t="n">
         <v>255.4748056</v>
@@ -23660,123 +23775,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T128" t="n">
-        <v>20213.11055</v>
+        <v>24768.61773</v>
       </c>
       <c r="U128" t="n">
-        <v>66293</v>
+        <v>65591</v>
       </c>
       <c r="V128" t="n">
-        <v>0.304905655</v>
+        <v>0.3776222</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>965.6698832</v>
+        <v>745.3323623</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.223698651</v>
+        <v>-0.504175664</v>
       </c>
       <c r="Z128" t="n">
-        <v>3.305367398</v>
+        <v>3.882142156</v>
       </c>
       <c r="AA128" t="n">
-        <v>2982.770056</v>
+        <v>1894.379529</v>
       </c>
       <c r="AB128" t="n">
-        <v>3794.642342</v>
+        <v>3164.549562</v>
       </c>
       <c r="AC128" t="n">
-        <v>6777.412398</v>
+        <v>5058.929091</v>
       </c>
       <c r="AD128" t="n">
-        <v>753.1662694</v>
+        <v>581.0993418</v>
       </c>
       <c r="AE128" t="n">
-        <v>3.36939136</v>
+        <v>10.12924025</v>
       </c>
       <c r="AF128" t="n">
-        <v>1286.370713</v>
+        <v>898.7962939</v>
       </c>
       <c r="AG128" t="n">
-        <v>1714.056906</v>
+        <v>1613.773099</v>
       </c>
       <c r="AH128" t="n">
-        <v>20.8354156</v>
+        <v>25.1381579</v>
       </c>
       <c r="AI128" t="n">
-        <v>0.286866253</v>
+        <v>0.896179475</v>
       </c>
       <c r="AJ128" t="n">
-        <v>98.49823473</v>
+        <v>101.4972032</v>
       </c>
       <c r="AK128" t="n">
-        <v>0.18024731</v>
+        <v>0.145508948</v>
       </c>
       <c r="AL128" t="n">
-        <v>1.545220979</v>
+        <v>1.042567996</v>
       </c>
       <c r="AM128" t="n">
-        <v>0.056528148</v>
+        <v>0.030088516</v>
       </c>
       <c r="AN128" t="n">
-        <v>1.342889309</v>
+        <v>0.928871688</v>
       </c>
       <c r="AO128" t="n">
-        <v>0.056528148</v>
+        <v>0.030088516</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.838905952</v>
+        <v>0.64412265</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.242258083</v>
+        <v>0.827131205</v>
       </c>
       <c r="AR128" t="n">
-        <v>0.100631226</v>
+        <v>0.101740484</v>
       </c>
       <c r="AS128" t="n">
-        <v>4680.149344</v>
+        <v>3052.320244</v>
       </c>
       <c r="AT128" t="n">
-        <v>1003.094218</v>
+        <v>798.8890119</v>
       </c>
       <c r="AU128" t="n">
-        <v>2236.279395</v>
+        <v>2207.865289</v>
       </c>
       <c r="AV128" t="n">
-        <v>135.014308</v>
+        <v>90.00717652</v>
       </c>
       <c r="AW128" t="n">
-        <v>90.00996958</v>
+        <v>134.9664979</v>
       </c>
       <c r="AX128" t="n">
-        <v>153.4974777</v>
+        <v>146.2620402</v>
       </c>
       <c r="AY128" t="n">
-        <v>53.47867338</v>
+        <v>60.19706671</v>
       </c>
       <c r="AZ128" t="n">
-        <v>0.003935162</v>
+        <v>0.002411956</v>
       </c>
       <c r="BA128" t="n">
-        <v>0.018107507</v>
+        <v>0.016788952</v>
       </c>
       <c r="BB128" t="n">
-        <v>2.288328872</v>
+        <v>1.550166692</v>
       </c>
       <c r="BC128" t="n">
-        <v>9.024672658</v>
+        <v>7.377919011</v>
       </c>
       <c r="BD128" t="n">
-        <v>0.215684673</v>
+        <v>0.140306022</v>
       </c>
       <c r="BE128" t="n">
-        <v>0.447530274</v>
+        <v>0.292739938</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s">
         <v>349</v>
@@ -23788,16 +23903,16 @@
         <v>183</v>
       </c>
       <c r="E129" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F129" t="s">
         <v>77</v>
       </c>
       <c r="G129" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="H129" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I129" t="s">
         <v>76</v>
@@ -23806,13 +23921,13 @@
         <v>78</v>
       </c>
       <c r="K129" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L129" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="M129" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="N129" t="n">
         <v>255.4748056</v>
@@ -23833,123 +23948,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T129" t="n">
-        <v>20213.11055</v>
+        <v>13816.61249</v>
       </c>
       <c r="U129" t="n">
-        <v>66293</v>
+        <v>63718</v>
       </c>
       <c r="V129" t="n">
-        <v>0.304905655</v>
+        <v>0.216840022</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>965.6698832</v>
+        <v>1028.49727</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.223698651</v>
+        <v>-0.117354318</v>
       </c>
       <c r="Z129" t="n">
-        <v>3.305367398</v>
+        <v>3.106287478</v>
       </c>
       <c r="AA129" t="n">
-        <v>2982.770056</v>
+        <v>3425.682028</v>
       </c>
       <c r="AB129" t="n">
-        <v>3794.642342</v>
+        <v>3135.897023</v>
       </c>
       <c r="AC129" t="n">
-        <v>6777.412398</v>
+        <v>6561.57905</v>
       </c>
       <c r="AD129" t="n">
-        <v>753.1662694</v>
+        <v>821.4070535</v>
       </c>
       <c r="AE129" t="n">
-        <v>3.36939136</v>
+        <v>1.066489793</v>
       </c>
       <c r="AF129" t="n">
-        <v>1286.370713</v>
+        <v>1237.734145</v>
       </c>
       <c r="AG129" t="n">
-        <v>1714.056906</v>
+        <v>2237.331707</v>
       </c>
       <c r="AH129" t="n">
-        <v>20.8354156</v>
+        <v>25.46000942</v>
       </c>
       <c r="AI129" t="n">
-        <v>0.286866253</v>
+        <v>0.716166584</v>
       </c>
       <c r="AJ129" t="n">
-        <v>98.49823473</v>
+        <v>86.23961706</v>
       </c>
       <c r="AK129" t="n">
-        <v>0.18024731</v>
+        <v>0.189390647</v>
       </c>
       <c r="AL129" t="n">
-        <v>1.545220979</v>
+        <v>1.744479261</v>
       </c>
       <c r="AM129" t="n">
-        <v>0.056528148</v>
+        <v>0.048919879</v>
       </c>
       <c r="AN129" t="n">
-        <v>1.342889309</v>
+        <v>1.286664063</v>
       </c>
       <c r="AO129" t="n">
-        <v>0.056528148</v>
+        <v>0.048919879</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.838905952</v>
+        <v>0.921944506</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.242258083</v>
+        <v>1.161497788</v>
       </c>
       <c r="AR129" t="n">
-        <v>0.100631226</v>
+        <v>0.125166275</v>
       </c>
       <c r="AS129" t="n">
-        <v>4680.149344</v>
+        <v>3116.23397</v>
       </c>
       <c r="AT129" t="n">
-        <v>1003.094218</v>
+        <v>1151.039541</v>
       </c>
       <c r="AU129" t="n">
-        <v>2236.279395</v>
+        <v>2188.996633</v>
       </c>
       <c r="AV129" t="n">
-        <v>135.014308</v>
+        <v>89.98948594</v>
       </c>
       <c r="AW129" t="n">
-        <v>90.00996958</v>
+        <v>0.003322756</v>
       </c>
       <c r="AX129" t="n">
-        <v>153.4974777</v>
+        <v>135.0078594</v>
       </c>
       <c r="AY129" t="n">
-        <v>53.47867338</v>
+        <v>75.83246536</v>
       </c>
       <c r="AZ129" t="n">
-        <v>0.003935162</v>
+        <v>0.00222062</v>
       </c>
       <c r="BA129" t="n">
-        <v>0.018107507</v>
+        <v>0.017292386</v>
       </c>
       <c r="BB129" t="n">
-        <v>2.288328872</v>
+        <v>2.618863213</v>
       </c>
       <c r="BC129" t="n">
-        <v>9.024672658</v>
+        <v>7.890413111</v>
       </c>
       <c r="BD129" t="n">
-        <v>0.215684673</v>
+        <v>0.445586482</v>
       </c>
       <c r="BE129" t="n">
-        <v>0.447530274</v>
+        <v>0.567655715</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s">
         <v>349</v>
@@ -23961,16 +24076,16 @@
         <v>183</v>
       </c>
       <c r="E130" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F130" t="s">
         <v>77</v>
       </c>
       <c r="G130" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="H130" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I130" t="s">
         <v>76</v>
@@ -23979,13 +24094,13 @@
         <v>78</v>
       </c>
       <c r="K130" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L130" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="M130" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="N130" t="n">
         <v>255.4748056</v>
@@ -24006,138 +24121,138 @@
         <v>0.213429245</v>
       </c>
       <c r="T130" t="n">
-        <v>20213.11055</v>
+        <v>19761.75891</v>
       </c>
       <c r="U130" t="n">
-        <v>66293</v>
+        <v>59931</v>
       </c>
       <c r="V130" t="n">
-        <v>0.304905655</v>
+        <v>0.329741852</v>
       </c>
       <c r="W130" t="n">
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>965.6698832</v>
+        <v>792.0819471</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.223698651</v>
+        <v>0.302878182</v>
       </c>
       <c r="Z130" t="n">
-        <v>3.305367398</v>
+        <v>3.269047799</v>
       </c>
       <c r="AA130" t="n">
-        <v>2982.770056</v>
+        <v>2635.62662</v>
       </c>
       <c r="AB130" t="n">
-        <v>3794.642342</v>
+        <v>2188.463695</v>
       </c>
       <c r="AC130" t="n">
-        <v>6777.412398</v>
+        <v>4824.090315</v>
       </c>
       <c r="AD130" t="n">
-        <v>753.1662694</v>
+        <v>622.235017</v>
       </c>
       <c r="AE130" t="n">
-        <v>3.36939136</v>
+        <v>2.989099772</v>
       </c>
       <c r="AF130" t="n">
-        <v>1286.370713</v>
+        <v>1015.853606</v>
       </c>
       <c r="AG130" t="n">
-        <v>1714.056906</v>
+        <v>1456.829971</v>
       </c>
       <c r="AH130" t="n">
-        <v>20.8354156</v>
+        <v>21.7004439</v>
       </c>
       <c r="AI130" t="n">
-        <v>0.286866253</v>
+        <v>0.798778626</v>
       </c>
       <c r="AJ130" t="n">
-        <v>98.49823473</v>
+        <v>78.00974331</v>
       </c>
       <c r="AK130" t="n">
-        <v>0.18024731</v>
+        <v>0.166879975</v>
       </c>
       <c r="AL130" t="n">
-        <v>1.545220979</v>
+        <v>1.368130592</v>
       </c>
       <c r="AM130" t="n">
-        <v>0.056528148</v>
+        <v>0.04782149</v>
       </c>
       <c r="AN130" t="n">
-        <v>1.342889309</v>
+        <v>1.063673776</v>
       </c>
       <c r="AO130" t="n">
-        <v>0.056528148</v>
+        <v>0.04782149</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.838905952</v>
+        <v>0.675174428</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.242258083</v>
+        <v>0.981316738</v>
       </c>
       <c r="AR130" t="n">
-        <v>0.100631226</v>
+        <v>0.082357038</v>
       </c>
       <c r="AS130" t="n">
-        <v>4680.149344</v>
+        <v>3067.841248</v>
       </c>
       <c r="AT130" t="n">
-        <v>1003.094218</v>
+        <v>1072.216738</v>
       </c>
       <c r="AU130" t="n">
-        <v>2236.279395</v>
+        <v>2165.880919</v>
       </c>
       <c r="AV130" t="n">
-        <v>135.014308</v>
+        <v>90.00369399</v>
       </c>
       <c r="AW130" t="n">
-        <v>90.00996958</v>
+        <v>45.00939789</v>
       </c>
       <c r="AX130" t="n">
-        <v>153.4974777</v>
+        <v>134.9914286</v>
       </c>
       <c r="AY130" t="n">
-        <v>53.47867338</v>
+        <v>71.8620492</v>
       </c>
       <c r="AZ130" t="n">
-        <v>0.003935162</v>
+        <v>0.001711308</v>
       </c>
       <c r="BA130" t="n">
-        <v>0.018107507</v>
+        <v>0.017144702</v>
       </c>
       <c r="BB130" t="n">
-        <v>2.288328872</v>
+        <v>2.075479738</v>
       </c>
       <c r="BC130" t="n">
-        <v>9.024672658</v>
+        <v>9.651555589</v>
       </c>
       <c r="BD130" t="n">
-        <v>0.215684673</v>
+        <v>0.146734969</v>
       </c>
       <c r="BE130" t="n">
-        <v>0.447530274</v>
+        <v>0.316384361</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B131" t="s">
         <v>349</v>
       </c>
       <c r="C131" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="D131" t="s">
         <v>183</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F131" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G131" t="s">
         <v>63</v>
@@ -24146,19 +24261,19 @@
         <v>64</v>
       </c>
       <c r="I131" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J131" t="s">
         <v>78</v>
       </c>
       <c r="K131" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L131" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="M131" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="N131" t="n">
         <v>255.4748056</v>
@@ -24179,159 +24294,159 @@
         <v>0.213429245</v>
       </c>
       <c r="T131" t="n">
-        <v>20213.11055</v>
+        <v>18217.87752</v>
       </c>
       <c r="U131" t="n">
-        <v>66293</v>
+        <v>63271</v>
       </c>
       <c r="V131" t="n">
-        <v>0.304905655</v>
+        <v>0.287934086</v>
       </c>
       <c r="W131" t="n">
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>965.6698832</v>
+        <v>663.0132426</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.223698651</v>
+        <v>-0.386399933</v>
       </c>
       <c r="Z131" t="n">
-        <v>3.305367398</v>
+        <v>3.404964067</v>
       </c>
       <c r="AA131" t="n">
-        <v>2982.770056</v>
+        <v>1982.311005</v>
       </c>
       <c r="AB131" t="n">
-        <v>3794.642342</v>
+        <v>2362.211237</v>
       </c>
       <c r="AC131" t="n">
-        <v>6777.412398</v>
+        <v>4344.522242</v>
       </c>
       <c r="AD131" t="n">
-        <v>753.1662694</v>
+        <v>517.5323848</v>
       </c>
       <c r="AE131" t="n">
-        <v>3.36939136</v>
+        <v>5.325613079</v>
       </c>
       <c r="AF131" t="n">
-        <v>1286.370713</v>
+        <v>765.1139243</v>
       </c>
       <c r="AG131" t="n">
-        <v>1714.056906</v>
+        <v>1558.564863</v>
       </c>
       <c r="AH131" t="n">
-        <v>20.8354156</v>
+        <v>17.30024266</v>
       </c>
       <c r="AI131" t="n">
-        <v>0.286866253</v>
+        <v>0.651343479</v>
       </c>
       <c r="AJ131" t="n">
-        <v>98.49823473</v>
+        <v>16.74458619</v>
       </c>
       <c r="AK131" t="n">
-        <v>0.18024731</v>
+        <v>0.168143359</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.545220979</v>
+        <v>1.382147179</v>
       </c>
       <c r="AM131" t="n">
-        <v>0.056528148</v>
+        <v>0.031403672</v>
       </c>
       <c r="AN131" t="n">
-        <v>1.342889309</v>
+        <v>0.796520133</v>
       </c>
       <c r="AO131" t="n">
-        <v>0.056528148</v>
+        <v>0.031403672</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.838905952</v>
+        <v>0.580160115</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.242258083</v>
+        <v>0.703507625</v>
       </c>
       <c r="AR131" t="n">
-        <v>0.100631226</v>
+        <v>0.093012508</v>
       </c>
       <c r="AS131" t="n">
-        <v>4680.149344</v>
+        <v>2866.786929</v>
       </c>
       <c r="AT131" t="n">
-        <v>1003.094218</v>
+        <v>924.321931</v>
       </c>
       <c r="AU131" t="n">
-        <v>2236.279395</v>
+        <v>2209.447405</v>
       </c>
       <c r="AV131" t="n">
-        <v>135.014308</v>
+        <v>179.9960493</v>
       </c>
       <c r="AW131" t="n">
-        <v>90.00996958</v>
+        <v>44.99013947</v>
       </c>
       <c r="AX131" t="n">
-        <v>153.4974777</v>
+        <v>26.4805316</v>
       </c>
       <c r="AY131" t="n">
-        <v>53.47867338</v>
+        <v>75.34100784</v>
       </c>
       <c r="AZ131" t="n">
-        <v>0.003935162</v>
+        <v>0.001164136</v>
       </c>
       <c r="BA131" t="n">
-        <v>0.018107507</v>
+        <v>0.01805072</v>
       </c>
       <c r="BB131" t="n">
-        <v>2.288328872</v>
+        <v>2.277369403</v>
       </c>
       <c r="BC131" t="n">
-        <v>9.024672658</v>
+        <v>7.377919011</v>
       </c>
       <c r="BD131" t="n">
-        <v>0.215684673</v>
+        <v>0.204312872</v>
       </c>
       <c r="BE131" t="n">
-        <v>0.447530274</v>
+        <v>0.340950209</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B132" t="s">
         <v>349</v>
       </c>
       <c r="C132" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="D132" t="s">
         <v>183</v>
       </c>
       <c r="E132" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F132" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G132" t="s">
         <v>63</v>
       </c>
       <c r="H132" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I132" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J132" t="s">
         <v>78</v>
       </c>
       <c r="K132" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L132" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="M132" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="N132" t="n">
         <v>255.4748056</v>
@@ -24352,159 +24467,159 @@
         <v>0.213429245</v>
       </c>
       <c r="T132" t="n">
-        <v>20213.11055</v>
+        <v>18758.34035</v>
       </c>
       <c r="U132" t="n">
-        <v>66293</v>
+        <v>63023</v>
       </c>
       <c r="V132" t="n">
-        <v>0.304905655</v>
+        <v>0.297642771</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>965.6698832</v>
+        <v>821.9461186</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.223698651</v>
+        <v>-0.327060566</v>
       </c>
       <c r="Z132" t="n">
-        <v>3.305367398</v>
+        <v>5.61665722</v>
       </c>
       <c r="AA132" t="n">
-        <v>2982.770056</v>
+        <v>3455.84092</v>
       </c>
       <c r="AB132" t="n">
-        <v>3794.642342</v>
+        <v>4334.809786</v>
       </c>
       <c r="AC132" t="n">
-        <v>6777.412398</v>
+        <v>7790.650706</v>
       </c>
       <c r="AD132" t="n">
-        <v>753.1662694</v>
+        <v>609.6117001</v>
       </c>
       <c r="AE132" t="n">
-        <v>3.36939136</v>
+        <v>0.452668654</v>
       </c>
       <c r="AF132" t="n">
-        <v>1286.370713</v>
+        <v>912.0100581</v>
       </c>
       <c r="AG132" t="n">
-        <v>1714.056906</v>
+        <v>1725.55123</v>
       </c>
       <c r="AH132" t="n">
-        <v>20.8354156</v>
+        <v>16.84246205</v>
       </c>
       <c r="AI132" t="n">
-        <v>0.286866253</v>
+        <v>0.794769455</v>
       </c>
       <c r="AJ132" t="n">
-        <v>98.49823473</v>
+        <v>50.50395741</v>
       </c>
       <c r="AK132" t="n">
-        <v>0.18024731</v>
+        <v>0.221323286</v>
       </c>
       <c r="AL132" t="n">
-        <v>1.545220979</v>
+        <v>2.353470638</v>
       </c>
       <c r="AM132" t="n">
-        <v>0.056528148</v>
+        <v>0.050915414</v>
       </c>
       <c r="AN132" t="n">
-        <v>1.342889309</v>
+        <v>0.962922133</v>
       </c>
       <c r="AO132" t="n">
-        <v>0.056528148</v>
+        <v>0.050915414</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.838905952</v>
+        <v>0.637463361</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.242258083</v>
+        <v>0.853488807</v>
       </c>
       <c r="AR132" t="n">
-        <v>0.100631226</v>
+        <v>0.109433326</v>
       </c>
       <c r="AS132" t="n">
-        <v>4680.149344</v>
+        <v>4524.765403</v>
       </c>
       <c r="AT132" t="n">
-        <v>1003.094218</v>
+        <v>1095.171392</v>
       </c>
       <c r="AU132" t="n">
-        <v>2236.279395</v>
+        <v>2243.978903</v>
       </c>
       <c r="AV132" t="n">
-        <v>135.014308</v>
+        <v>0.00474006</v>
       </c>
       <c r="AW132" t="n">
-        <v>90.00996958</v>
+        <v>134.996549</v>
       </c>
       <c r="AX132" t="n">
-        <v>153.4974777</v>
+        <v>153.5416059</v>
       </c>
       <c r="AY132" t="n">
-        <v>53.47867338</v>
+        <v>81.39085644</v>
       </c>
       <c r="AZ132" t="n">
-        <v>0.003935162</v>
+        <v>0.001648103</v>
       </c>
       <c r="BA132" t="n">
-        <v>0.018107507</v>
+        <v>0.017965798</v>
       </c>
       <c r="BB132" t="n">
-        <v>2.288328872</v>
+        <v>4.028359934</v>
       </c>
       <c r="BC132" t="n">
-        <v>9.024672658</v>
+        <v>8.438506708</v>
       </c>
       <c r="BD132" t="n">
-        <v>0.215684673</v>
+        <v>0.273053877</v>
       </c>
       <c r="BE132" t="n">
-        <v>0.447530274</v>
+        <v>0.362022781</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B133" t="s">
         <v>349</v>
       </c>
       <c r="C133" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="D133" t="s">
         <v>183</v>
       </c>
       <c r="E133" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G133" t="s">
         <v>63</v>
       </c>
       <c r="H133" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I133" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J133" t="s">
         <v>78</v>
       </c>
       <c r="K133" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L133" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="M133" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="N133" t="n">
         <v>255.4748056</v>
@@ -24525,135 +24640,135 @@
         <v>0.213429245</v>
       </c>
       <c r="T133" t="n">
-        <v>20213.11055</v>
+        <v>18114.32864</v>
       </c>
       <c r="U133" t="n">
-        <v>66293</v>
+        <v>62913</v>
       </c>
       <c r="V133" t="n">
-        <v>0.304905655</v>
+        <v>0.287926639</v>
       </c>
       <c r="W133" t="n">
         <v>0</v>
       </c>
       <c r="X133" t="n">
-        <v>965.6698832</v>
+        <v>795.4986539</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.223698651</v>
+        <v>1.087126342</v>
       </c>
       <c r="Z133" t="n">
-        <v>3.305367398</v>
+        <v>8.344102259</v>
       </c>
       <c r="AA133" t="n">
-        <v>2982.770056</v>
+        <v>4803.710459</v>
       </c>
       <c r="AB133" t="n">
-        <v>3794.642342</v>
+        <v>2507.524306</v>
       </c>
       <c r="AC133" t="n">
-        <v>6777.412398</v>
+        <v>7311.234766</v>
       </c>
       <c r="AD133" t="n">
-        <v>753.1662694</v>
+        <v>576.8050578</v>
       </c>
       <c r="AE133" t="n">
-        <v>3.36939136</v>
+        <v>0.517563793</v>
       </c>
       <c r="AF133" t="n">
-        <v>1286.370713</v>
+        <v>889.0365544</v>
       </c>
       <c r="AG133" t="n">
-        <v>1714.056906</v>
+        <v>1414.834335</v>
       </c>
       <c r="AH133" t="n">
-        <v>20.8354156</v>
+        <v>22.04772777</v>
       </c>
       <c r="AI133" t="n">
-        <v>0.286866253</v>
+        <v>0.662613474</v>
       </c>
       <c r="AJ133" t="n">
-        <v>98.49823473</v>
+        <v>39.00067271</v>
       </c>
       <c r="AK133" t="n">
-        <v>0.18024731</v>
+        <v>0.15009247</v>
       </c>
       <c r="AL133" t="n">
-        <v>1.545220979</v>
+        <v>1.096760477</v>
       </c>
       <c r="AM133" t="n">
-        <v>0.056528148</v>
+        <v>0.058109445</v>
       </c>
       <c r="AN133" t="n">
-        <v>1.342889309</v>
+        <v>0.947160216</v>
       </c>
       <c r="AO133" t="n">
-        <v>0.056528148</v>
+        <v>0.058109445</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.838905952</v>
+        <v>0.615469501</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.242258083</v>
+        <v>0.863523265</v>
       </c>
       <c r="AR133" t="n">
-        <v>0.100631226</v>
+        <v>0.08363695</v>
       </c>
       <c r="AS133" t="n">
-        <v>4680.149344</v>
+        <v>2782.71499</v>
       </c>
       <c r="AT133" t="n">
-        <v>1003.094218</v>
+        <v>817.8050924</v>
       </c>
       <c r="AU133" t="n">
-        <v>2236.279395</v>
+        <v>2196.518072</v>
       </c>
       <c r="AV133" t="n">
-        <v>135.014308</v>
+        <v>0.016887749</v>
       </c>
       <c r="AW133" t="n">
-        <v>90.00996958</v>
+        <v>90.00749188</v>
       </c>
       <c r="AX133" t="n">
-        <v>153.4974777</v>
+        <v>134.9800438</v>
       </c>
       <c r="AY133" t="n">
-        <v>53.47867338</v>
+        <v>68.85931907</v>
       </c>
       <c r="AZ133" t="n">
-        <v>0.003935162</v>
+        <v>0.001347834</v>
       </c>
       <c r="BA133" t="n">
-        <v>0.018107507</v>
+        <v>0.018199429</v>
       </c>
       <c r="BB133" t="n">
-        <v>2.288328872</v>
+        <v>1.577863925</v>
       </c>
       <c r="BC133" t="n">
-        <v>9.024672658</v>
+        <v>6.898712167</v>
       </c>
       <c r="BD133" t="n">
-        <v>0.215684673</v>
+        <v>0.290163106</v>
       </c>
       <c r="BE133" t="n">
-        <v>0.447530274</v>
+        <v>0.44627845</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B134" t="s">
         <v>349</v>
       </c>
       <c r="C134" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="D134" t="s">
         <v>183</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F134" t="s">
         <v>77</v>
@@ -24665,19 +24780,19 @@
         <v>64</v>
       </c>
       <c r="I134" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J134" t="s">
         <v>78</v>
       </c>
       <c r="K134" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L134" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="M134" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="N134" t="n">
         <v>255.4748056</v>
@@ -24698,135 +24813,135 @@
         <v>0.213429245</v>
       </c>
       <c r="T134" t="n">
-        <v>20213.11055</v>
+        <v>16972.58753</v>
       </c>
       <c r="U134" t="n">
-        <v>66293</v>
+        <v>65210</v>
       </c>
       <c r="V134" t="n">
-        <v>0.304905655</v>
+        <v>0.26027584</v>
       </c>
       <c r="W134" t="n">
         <v>0</v>
       </c>
       <c r="X134" t="n">
-        <v>965.6698832</v>
+        <v>855.5783649</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.223698651</v>
+        <v>-0.093980474</v>
       </c>
       <c r="Z134" t="n">
-        <v>3.305367398</v>
+        <v>4.098550988</v>
       </c>
       <c r="AA134" t="n">
-        <v>2982.770056</v>
+        <v>2806.944796</v>
       </c>
       <c r="AB134" t="n">
-        <v>3794.642342</v>
+        <v>3571.531104</v>
       </c>
       <c r="AC134" t="n">
-        <v>6777.412398</v>
+        <v>6378.4759</v>
       </c>
       <c r="AD134" t="n">
-        <v>753.1662694</v>
+        <v>646.6260263</v>
       </c>
       <c r="AE134" t="n">
-        <v>3.36939136</v>
+        <v>2.487118452</v>
       </c>
       <c r="AF134" t="n">
-        <v>1286.370713</v>
+        <v>993.6814865</v>
       </c>
       <c r="AG134" t="n">
-        <v>1714.056906</v>
+        <v>1758.424984</v>
       </c>
       <c r="AH134" t="n">
-        <v>20.8354156</v>
+        <v>27.55494456</v>
       </c>
       <c r="AI134" t="n">
-        <v>0.286866253</v>
+        <v>0.860482477</v>
       </c>
       <c r="AJ134" t="n">
-        <v>98.49823473</v>
+        <v>66.50621241</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.18024731</v>
+        <v>0.139828715</v>
       </c>
       <c r="AL134" t="n">
-        <v>1.545220979</v>
+        <v>0.910712221</v>
       </c>
       <c r="AM134" t="n">
-        <v>0.056528148</v>
+        <v>0.053493041</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.342889309</v>
+        <v>1.047171876</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.056528148</v>
+        <v>0.053493041</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.838905952</v>
+        <v>0.680895689</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.242258083</v>
+        <v>0.934141926</v>
       </c>
       <c r="AR134" t="n">
-        <v>0.100631226</v>
+        <v>0.11302995</v>
       </c>
       <c r="AS134" t="n">
-        <v>4680.149344</v>
+        <v>3864.089824</v>
       </c>
       <c r="AT134" t="n">
-        <v>1003.094218</v>
+        <v>768.9600124</v>
       </c>
       <c r="AU134" t="n">
-        <v>2236.279395</v>
+        <v>1704.466668</v>
       </c>
       <c r="AV134" t="n">
-        <v>135.014308</v>
+        <v>90.01131056</v>
       </c>
       <c r="AW134" t="n">
-        <v>90.00996958</v>
+        <v>134.9953535</v>
       </c>
       <c r="AX134" t="n">
-        <v>153.4974777</v>
+        <v>0.007141617</v>
       </c>
       <c r="AY134" t="n">
-        <v>53.47867338</v>
+        <v>77.05235854</v>
       </c>
       <c r="AZ134" t="n">
-        <v>0.003935162</v>
+        <v>0.002507808</v>
       </c>
       <c r="BA134" t="n">
-        <v>0.018107507</v>
+        <v>0.017492635</v>
       </c>
       <c r="BB134" t="n">
-        <v>2.288328872</v>
+        <v>1.32015917</v>
       </c>
       <c r="BC134" t="n">
-        <v>9.024672658</v>
+        <v>11.80578558</v>
       </c>
       <c r="BD134" t="n">
-        <v>0.215684673</v>
+        <v>0.533897061</v>
       </c>
       <c r="BE134" t="n">
-        <v>0.447530274</v>
+        <v>1.329243939</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B135" t="s">
         <v>349</v>
       </c>
       <c r="C135" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="D135" t="s">
         <v>183</v>
       </c>
       <c r="E135" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F135" t="s">
         <v>77</v>
@@ -24835,22 +24950,22 @@
         <v>63</v>
       </c>
       <c r="H135" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I135" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J135" t="s">
         <v>78</v>
       </c>
       <c r="K135" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L135" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="M135" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="N135" t="n">
         <v>255.4748056</v>
@@ -24871,135 +24986,135 @@
         <v>0.213429245</v>
       </c>
       <c r="T135" t="n">
-        <v>20213.11055</v>
+        <v>26795.91649</v>
       </c>
       <c r="U135" t="n">
-        <v>66293</v>
+        <v>61492</v>
       </c>
       <c r="V135" t="n">
-        <v>0.304905655</v>
+        <v>0.435762644</v>
       </c>
       <c r="W135" t="n">
         <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>965.6698832</v>
+        <v>1390.793856</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.223698651</v>
+        <v>-4.567792378</v>
       </c>
       <c r="Z135" t="n">
-        <v>3.305367398</v>
+        <v>34.6914655</v>
       </c>
       <c r="AA135" t="n">
-        <v>2982.770056</v>
+        <v>2234.634413</v>
       </c>
       <c r="AB135" t="n">
-        <v>3794.642342</v>
+        <v>12127.71014</v>
       </c>
       <c r="AC135" t="n">
-        <v>6777.412398</v>
+        <v>14362.34455</v>
       </c>
       <c r="AD135" t="n">
-        <v>753.1662694</v>
+        <v>761.6333318</v>
       </c>
       <c r="AE135" t="n">
-        <v>3.36939136</v>
+        <v>8.832342733</v>
       </c>
       <c r="AF135" t="n">
-        <v>1286.370713</v>
+        <v>1181.887995</v>
       </c>
       <c r="AG135" t="n">
-        <v>1714.056906</v>
+        <v>2665.593511</v>
       </c>
       <c r="AH135" t="n">
-        <v>20.8354156</v>
+        <v>19.23460029</v>
       </c>
       <c r="AI135" t="n">
-        <v>0.286866253</v>
+        <v>0.715280256</v>
       </c>
       <c r="AJ135" t="n">
-        <v>98.49823473</v>
+        <v>64.99966736</v>
       </c>
       <c r="AK135" t="n">
-        <v>0.18024731</v>
+        <v>0.25983336</v>
       </c>
       <c r="AL135" t="n">
-        <v>1.545220979</v>
+        <v>2.046341895</v>
       </c>
       <c r="AM135" t="n">
-        <v>0.056528148</v>
+        <v>0.035746685</v>
       </c>
       <c r="AN135" t="n">
-        <v>1.342889309</v>
+        <v>1.217627447</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.056528148</v>
+        <v>0.035746685</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.838905952</v>
+        <v>0.686458167</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.242258083</v>
+        <v>0.98050825</v>
       </c>
       <c r="AR135" t="n">
-        <v>0.100631226</v>
+        <v>0.237119197</v>
       </c>
       <c r="AS135" t="n">
-        <v>4680.149344</v>
+        <v>10001.37364</v>
       </c>
       <c r="AT135" t="n">
-        <v>1003.094218</v>
+        <v>1196.882544</v>
       </c>
       <c r="AU135" t="n">
-        <v>2236.279395</v>
+        <v>1733.196303</v>
       </c>
       <c r="AV135" t="n">
-        <v>135.014308</v>
+        <v>63.55117758</v>
       </c>
       <c r="AW135" t="n">
-        <v>90.00996958</v>
+        <v>56.25014402</v>
       </c>
       <c r="AX135" t="n">
-        <v>153.4974777</v>
+        <v>71.43184822</v>
       </c>
       <c r="AY135" t="n">
-        <v>53.47867338</v>
+        <v>64.77909483</v>
       </c>
       <c r="AZ135" t="n">
-        <v>0.003935162</v>
+        <v>0.001505529</v>
       </c>
       <c r="BA135" t="n">
-        <v>0.018107507</v>
+        <v>0.017097369</v>
       </c>
       <c r="BB135" t="n">
-        <v>2.288328872</v>
+        <v>3.280691778</v>
       </c>
       <c r="BC135" t="n">
-        <v>9.024672658</v>
+        <v>115.8068023</v>
       </c>
       <c r="BD135" t="n">
-        <v>0.215684673</v>
+        <v>2.196102634</v>
       </c>
       <c r="BE135" t="n">
-        <v>0.447530274</v>
+        <v>5.090037393</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="B136" t="s">
         <v>349</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="D136" t="s">
         <v>183</v>
       </c>
       <c r="E136" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F136" t="s">
         <v>77</v>
@@ -25008,22 +25123,22 @@
         <v>63</v>
       </c>
       <c r="H136" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I136" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="J136" t="s">
         <v>78</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L136" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="M136" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="N136" t="n">
         <v>255.4748056</v>
@@ -25044,135 +25159,135 @@
         <v>0.213429245</v>
       </c>
       <c r="T136" t="n">
-        <v>20213.11055</v>
+        <v>23282.08393</v>
       </c>
       <c r="U136" t="n">
-        <v>66293</v>
+        <v>66079</v>
       </c>
       <c r="V136" t="n">
-        <v>0.304905655</v>
+        <v>0.352337111</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>965.6698832</v>
+        <v>426.3761966</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.223698651</v>
+        <v>-0.145813073</v>
       </c>
       <c r="Z136" t="n">
-        <v>3.305367398</v>
+        <v>3.961171829</v>
       </c>
       <c r="AA136" t="n">
-        <v>2982.770056</v>
+        <v>1986.018591</v>
       </c>
       <c r="AB136" t="n">
-        <v>3794.642342</v>
+        <v>1627.445114</v>
       </c>
       <c r="AC136" t="n">
-        <v>6777.412398</v>
+        <v>3613.463705</v>
       </c>
       <c r="AD136" t="n">
-        <v>753.1662694</v>
+        <v>325.5339217</v>
       </c>
       <c r="AE136" t="n">
-        <v>3.36939136</v>
+        <v>0.933415554</v>
       </c>
       <c r="AF136" t="n">
-        <v>1286.370713</v>
+        <v>510.5589767</v>
       </c>
       <c r="AG136" t="n">
-        <v>1714.056906</v>
+        <v>915.8060234</v>
       </c>
       <c r="AH136" t="n">
-        <v>20.8354156</v>
+        <v>20.34011498</v>
       </c>
       <c r="AI136" t="n">
-        <v>0.286866253</v>
+        <v>0.891613076</v>
       </c>
       <c r="AJ136" t="n">
-        <v>98.49823473</v>
+        <v>93.50131992</v>
       </c>
       <c r="AK136" t="n">
-        <v>0.18024731</v>
+        <v>0.103699064</v>
       </c>
       <c r="AL136" t="n">
-        <v>1.545220979</v>
+        <v>0.530332554</v>
       </c>
       <c r="AM136" t="n">
-        <v>0.056528148</v>
+        <v>0.022143368</v>
       </c>
       <c r="AN136" t="n">
-        <v>1.342889309</v>
+        <v>0.532708245</v>
       </c>
       <c r="AO136" t="n">
-        <v>0.056528148</v>
+        <v>0.022143368</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.838905952</v>
+        <v>0.361929565</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.242258083</v>
+        <v>0.474624437</v>
       </c>
       <c r="AR136" t="n">
-        <v>0.100631226</v>
+        <v>0.058083808</v>
       </c>
       <c r="AS136" t="n">
-        <v>4680.149344</v>
+        <v>1849.593662</v>
       </c>
       <c r="AT136" t="n">
-        <v>1003.094218</v>
+        <v>525.4565583</v>
       </c>
       <c r="AU136" t="n">
-        <v>2236.279395</v>
+        <v>2123.676817</v>
       </c>
       <c r="AV136" t="n">
-        <v>135.014308</v>
+        <v>45.01440715</v>
       </c>
       <c r="AW136" t="n">
-        <v>90.00996958</v>
+        <v>90.00864896</v>
       </c>
       <c r="AX136" t="n">
-        <v>153.4974777</v>
+        <v>134.9998642</v>
       </c>
       <c r="AY136" t="n">
-        <v>53.47867338</v>
+        <v>81.09955784</v>
       </c>
       <c r="AZ136" t="n">
-        <v>0.003935162</v>
+        <v>0.001395783</v>
       </c>
       <c r="BA136" t="n">
-        <v>0.018107507</v>
+        <v>0.017216855</v>
       </c>
       <c r="BB136" t="n">
-        <v>2.288328872</v>
+        <v>0.832239028</v>
       </c>
       <c r="BC136" t="n">
-        <v>9.024672658</v>
+        <v>6.450630522</v>
       </c>
       <c r="BD136" t="n">
-        <v>0.215684673</v>
+        <v>0.406124462</v>
       </c>
       <c r="BE136" t="n">
-        <v>0.447530274</v>
+        <v>0.712184263</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B137" t="s">
         <v>349</v>
       </c>
       <c r="C137" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D137" t="s">
         <v>183</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F137" t="s">
         <v>77</v>
@@ -25184,19 +25299,19 @@
         <v>64</v>
       </c>
       <c r="I137" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J137" t="s">
         <v>78</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L137" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="M137" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="N137" t="n">
         <v>255.4748056</v>
@@ -25217,135 +25332,135 @@
         <v>0.213429245</v>
       </c>
       <c r="T137" t="n">
-        <v>20213.11055</v>
+        <v>35870.5254</v>
       </c>
       <c r="U137" t="n">
-        <v>66293</v>
+        <v>65132</v>
       </c>
       <c r="V137" t="n">
-        <v>0.304905655</v>
+        <v>0.55073582</v>
       </c>
       <c r="W137" t="n">
         <v>0</v>
       </c>
       <c r="X137" t="n">
-        <v>965.6698832</v>
+        <v>658.6230369</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.223698651</v>
+        <v>-0.195636102</v>
       </c>
       <c r="Z137" t="n">
-        <v>3.305367398</v>
+        <v>4.121182793</v>
       </c>
       <c r="AA137" t="n">
-        <v>2982.770056</v>
+        <v>2378.352637</v>
       </c>
       <c r="AB137" t="n">
-        <v>3794.642342</v>
+        <v>2522.31498</v>
       </c>
       <c r="AC137" t="n">
-        <v>6777.412398</v>
+        <v>4900.667617</v>
       </c>
       <c r="AD137" t="n">
-        <v>753.1662694</v>
+        <v>491.1663056</v>
       </c>
       <c r="AE137" t="n">
-        <v>3.36939136</v>
+        <v>2.54768337</v>
       </c>
       <c r="AF137" t="n">
-        <v>1286.370713</v>
+        <v>733.3664571</v>
       </c>
       <c r="AG137" t="n">
-        <v>1714.056906</v>
+        <v>1522.946959</v>
       </c>
       <c r="AH137" t="n">
-        <v>20.8354156</v>
+        <v>23.89068558</v>
       </c>
       <c r="AI137" t="n">
-        <v>0.286866253</v>
+        <v>0.841131935</v>
       </c>
       <c r="AJ137" t="n">
-        <v>98.49823473</v>
+        <v>16.99950821</v>
       </c>
       <c r="AK137" t="n">
-        <v>0.18024731</v>
+        <v>0.180032091</v>
       </c>
       <c r="AL137" t="n">
-        <v>1.545220979</v>
+        <v>1.551771195</v>
       </c>
       <c r="AM137" t="n">
-        <v>0.056528148</v>
+        <v>0.043031831</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.342889309</v>
+        <v>0.776424118</v>
       </c>
       <c r="AO137" t="n">
-        <v>0.056528148</v>
+        <v>0.043031831</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.838905952</v>
+        <v>0.523853896</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.242258083</v>
+        <v>0.681982181</v>
       </c>
       <c r="AR137" t="n">
-        <v>0.100631226</v>
+        <v>0.094441937</v>
       </c>
       <c r="AS137" t="n">
-        <v>4680.149344</v>
+        <v>3036.950067</v>
       </c>
       <c r="AT137" t="n">
-        <v>1003.094218</v>
+        <v>644.3322496</v>
       </c>
       <c r="AU137" t="n">
-        <v>2236.279395</v>
+        <v>2669.179426</v>
       </c>
       <c r="AV137" t="n">
-        <v>135.014308</v>
+        <v>179.9967735</v>
       </c>
       <c r="AW137" t="n">
-        <v>90.00996958</v>
+        <v>26.45720537</v>
       </c>
       <c r="AX137" t="n">
-        <v>153.4974777</v>
+        <v>89.97623827</v>
       </c>
       <c r="AY137" t="n">
-        <v>53.47867338</v>
+        <v>78.04102531</v>
       </c>
       <c r="AZ137" t="n">
-        <v>0.003935162</v>
+        <v>0.00004</v>
       </c>
       <c r="BA137" t="n">
-        <v>0.018107507</v>
+        <v>0.017751292</v>
       </c>
       <c r="BB137" t="n">
-        <v>2.288328872</v>
+        <v>2.81230877</v>
       </c>
       <c r="BC137" t="n">
-        <v>9.024672658</v>
+        <v>4.610763815</v>
       </c>
       <c r="BD137" t="n">
-        <v>0.215684673</v>
+        <v>0.502195942</v>
       </c>
       <c r="BE137" t="n">
-        <v>0.447530274</v>
+        <v>0.802784238</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B138" t="s">
         <v>349</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D138" t="s">
         <v>183</v>
       </c>
       <c r="E138" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F138" t="s">
         <v>77</v>
@@ -25354,22 +25469,22 @@
         <v>63</v>
       </c>
       <c r="H138" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I138" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J138" t="s">
         <v>78</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L138" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="M138" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="N138" t="n">
         <v>255.4748056</v>
@@ -25390,135 +25505,135 @@
         <v>0.213429245</v>
       </c>
       <c r="T138" t="n">
-        <v>20213.11055</v>
+        <v>25791.52539</v>
       </c>
       <c r="U138" t="n">
-        <v>66293</v>
+        <v>65086</v>
       </c>
       <c r="V138" t="n">
-        <v>0.304905655</v>
+        <v>0.396268405</v>
       </c>
       <c r="W138" t="n">
         <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>965.6698832</v>
+        <v>868.7429757</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.223698651</v>
+        <v>-1.18887264</v>
       </c>
       <c r="Z138" t="n">
-        <v>3.305367398</v>
+        <v>7.331660727</v>
       </c>
       <c r="AA138" t="n">
-        <v>2982.770056</v>
+        <v>2340.440452</v>
       </c>
       <c r="AB138" t="n">
-        <v>3794.642342</v>
+        <v>5051.352236</v>
       </c>
       <c r="AC138" t="n">
-        <v>6777.412398</v>
+        <v>7391.792688</v>
       </c>
       <c r="AD138" t="n">
-        <v>753.1662694</v>
+        <v>625.6443216</v>
       </c>
       <c r="AE138" t="n">
-        <v>3.36939136</v>
+        <v>4.402630901</v>
       </c>
       <c r="AF138" t="n">
-        <v>1286.370713</v>
+        <v>917.6175578</v>
       </c>
       <c r="AG138" t="n">
-        <v>1714.056906</v>
+        <v>2143.936351</v>
       </c>
       <c r="AH138" t="n">
-        <v>20.8354156</v>
+        <v>23.6385892</v>
       </c>
       <c r="AI138" t="n">
-        <v>0.286866253</v>
+        <v>0.806727197</v>
       </c>
       <c r="AJ138" t="n">
-        <v>98.49823473</v>
+        <v>8.759297924</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.18024731</v>
+        <v>0.161532824</v>
       </c>
       <c r="AL138" t="n">
-        <v>1.545220979</v>
+        <v>1.263360938</v>
       </c>
       <c r="AM138" t="n">
-        <v>0.056528148</v>
+        <v>0.042902032</v>
       </c>
       <c r="AN138" t="n">
-        <v>1.342889309</v>
+        <v>0.960528577</v>
       </c>
       <c r="AO138" t="n">
-        <v>0.056528148</v>
+        <v>0.042902032</v>
       </c>
       <c r="AP138" t="n">
-        <v>0.838905952</v>
+        <v>0.650936936</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.242258083</v>
+        <v>0.825876155</v>
       </c>
       <c r="AR138" t="n">
-        <v>0.100631226</v>
+        <v>0.134652422</v>
       </c>
       <c r="AS138" t="n">
-        <v>4680.149344</v>
+        <v>3423.957151</v>
       </c>
       <c r="AT138" t="n">
-        <v>1003.094218</v>
+        <v>714.5656515</v>
       </c>
       <c r="AU138" t="n">
-        <v>2236.279395</v>
+        <v>2523.481259</v>
       </c>
       <c r="AV138" t="n">
-        <v>135.014308</v>
+        <v>0.000891665</v>
       </c>
       <c r="AW138" t="n">
-        <v>90.00996958</v>
+        <v>89.99596022</v>
       </c>
       <c r="AX138" t="n">
-        <v>153.4974777</v>
+        <v>134.9963556</v>
       </c>
       <c r="AY138" t="n">
-        <v>53.47867338</v>
+        <v>84.35975798</v>
       </c>
       <c r="AZ138" t="n">
-        <v>0.003935162</v>
+        <v>0.003037557</v>
       </c>
       <c r="BA138" t="n">
-        <v>0.018107507</v>
+        <v>0.018268849</v>
       </c>
       <c r="BB138" t="n">
-        <v>2.288328872</v>
+        <v>2.0204207</v>
       </c>
       <c r="BC138" t="n">
-        <v>9.024672658</v>
+        <v>4.610763815</v>
       </c>
       <c r="BD138" t="n">
-        <v>0.215684673</v>
+        <v>0.568555335</v>
       </c>
       <c r="BE138" t="n">
-        <v>0.447530274</v>
+        <v>0.782973228</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B139" t="s">
         <v>349</v>
       </c>
       <c r="C139" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D139" t="s">
         <v>183</v>
       </c>
       <c r="E139" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F139" t="s">
         <v>77</v>
@@ -25527,22 +25642,22 @@
         <v>63</v>
       </c>
       <c r="H139" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I139" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J139" t="s">
         <v>78</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L139" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="M139" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="N139" t="n">
         <v>255.4748056</v>
@@ -25563,159 +25678,159 @@
         <v>0.213429245</v>
       </c>
       <c r="T139" t="n">
-        <v>20213.11055</v>
+        <v>66803.77216</v>
       </c>
       <c r="U139" t="n">
-        <v>66293</v>
+        <v>65408</v>
       </c>
       <c r="V139" t="n">
-        <v>0.304905655</v>
+        <v>1.021339472</v>
       </c>
       <c r="W139" t="n">
         <v>0</v>
       </c>
       <c r="X139" t="n">
-        <v>965.6698832</v>
+        <v>2272.771327</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.223698651</v>
+        <v>-0.128401006</v>
       </c>
       <c r="Z139" t="n">
-        <v>3.305367398</v>
+        <v>6.993512515</v>
       </c>
       <c r="AA139" t="n">
-        <v>2982.770056</v>
+        <v>12491.59454</v>
       </c>
       <c r="AB139" t="n">
-        <v>3794.642342</v>
+        <v>11471.17428</v>
       </c>
       <c r="AC139" t="n">
-        <v>6777.412398</v>
+        <v>23962.76882</v>
       </c>
       <c r="AD139" t="n">
-        <v>753.1662694</v>
+        <v>1600.864691</v>
       </c>
       <c r="AE139" t="n">
-        <v>3.36939136</v>
+        <v>0.16836032</v>
       </c>
       <c r="AF139" t="n">
-        <v>1286.370713</v>
+        <v>2479.487639</v>
       </c>
       <c r="AG139" t="n">
-        <v>1714.056906</v>
+        <v>5045.956275</v>
       </c>
       <c r="AH139" t="n">
-        <v>20.8354156</v>
+        <v>20.84663943</v>
       </c>
       <c r="AI139" t="n">
-        <v>0.286866253</v>
+        <v>0.295180391</v>
       </c>
       <c r="AJ139" t="n">
-        <v>98.49823473</v>
+        <v>51.25602639</v>
       </c>
       <c r="AK139" t="n">
-        <v>0.18024731</v>
+        <v>0.291867764</v>
       </c>
       <c r="AL139" t="n">
-        <v>1.545220979</v>
+        <v>3.75204305</v>
       </c>
       <c r="AM139" t="n">
-        <v>0.056528148</v>
+        <v>0.156631304</v>
       </c>
       <c r="AN139" t="n">
-        <v>1.342889309</v>
+        <v>2.636076402</v>
       </c>
       <c r="AO139" t="n">
-        <v>0.056528148</v>
+        <v>0.156631304</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.838905952</v>
+        <v>1.596480512</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.242258083</v>
+        <v>2.307078949</v>
       </c>
       <c r="AR139" t="n">
-        <v>0.100631226</v>
+        <v>0.328997453</v>
       </c>
       <c r="AS139" t="n">
-        <v>4680.149344</v>
+        <v>8373.6355</v>
       </c>
       <c r="AT139" t="n">
-        <v>1003.094218</v>
+        <v>1685.852913</v>
       </c>
       <c r="AU139" t="n">
-        <v>2236.279395</v>
+        <v>2176.179807</v>
       </c>
       <c r="AV139" t="n">
-        <v>135.014308</v>
+        <v>0.023725447</v>
       </c>
       <c r="AW139" t="n">
-        <v>90.00996958</v>
+        <v>89.99463587</v>
       </c>
       <c r="AX139" t="n">
-        <v>153.4974777</v>
+        <v>45.00011908</v>
       </c>
       <c r="AY139" t="n">
-        <v>53.47867338</v>
+        <v>36.89580299</v>
       </c>
       <c r="AZ139" t="n">
-        <v>0.003935162</v>
+        <v>0.001568132</v>
       </c>
       <c r="BA139" t="n">
-        <v>0.018107507</v>
+        <v>0.01702903</v>
       </c>
       <c r="BB139" t="n">
-        <v>2.288328872</v>
+        <v>4.172210535</v>
       </c>
       <c r="BC139" t="n">
-        <v>9.024672658</v>
+        <v>811.9774305</v>
       </c>
       <c r="BD139" t="n">
-        <v>0.215684673</v>
+        <v>0.913646403</v>
       </c>
       <c r="BE139" t="n">
-        <v>0.447530274</v>
+        <v>1.770324479</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B140" t="s">
         <v>349</v>
       </c>
       <c r="C140" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D140" t="s">
         <v>183</v>
       </c>
       <c r="E140" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F140" t="s">
         <v>77</v>
       </c>
       <c r="G140" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="H140" t="s">
         <v>64</v>
       </c>
       <c r="I140" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J140" t="s">
         <v>78</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L140" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="M140" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="N140" t="n">
         <v>255.4748056</v>
@@ -25736,159 +25851,159 @@
         <v>0.213429245</v>
       </c>
       <c r="T140" t="n">
-        <v>20213.11055</v>
+        <v>23285.42163</v>
       </c>
       <c r="U140" t="n">
-        <v>66293</v>
+        <v>65423</v>
       </c>
       <c r="V140" t="n">
-        <v>0.304905655</v>
+        <v>0.355921031</v>
       </c>
       <c r="W140" t="n">
         <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>965.6698832</v>
+        <v>1387.302314</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.223698651</v>
+        <v>-2.086793718</v>
       </c>
       <c r="Z140" t="n">
-        <v>3.305367398</v>
+        <v>14.22276866</v>
       </c>
       <c r="AA140" t="n">
-        <v>2982.770056</v>
+        <v>3317.717893</v>
       </c>
       <c r="AB140" t="n">
-        <v>3794.642342</v>
+        <v>11514.68602</v>
       </c>
       <c r="AC140" t="n">
-        <v>6777.412398</v>
+        <v>14832.40391</v>
       </c>
       <c r="AD140" t="n">
-        <v>753.1662694</v>
+        <v>984.0127027</v>
       </c>
       <c r="AE140" t="n">
-        <v>3.36939136</v>
+        <v>1.38344014</v>
       </c>
       <c r="AF140" t="n">
-        <v>1286.370713</v>
+        <v>1365.297662</v>
       </c>
       <c r="AG140" t="n">
-        <v>1714.056906</v>
+        <v>3168.127947</v>
       </c>
       <c r="AH140" t="n">
-        <v>20.8354156</v>
+        <v>29.14140964</v>
       </c>
       <c r="AI140" t="n">
-        <v>0.286866253</v>
+        <v>0.73905078</v>
       </c>
       <c r="AJ140" t="n">
-        <v>98.49823473</v>
+        <v>68.75245778</v>
       </c>
       <c r="AK140" t="n">
-        <v>0.18024731</v>
+        <v>0.201607476</v>
       </c>
       <c r="AL140" t="n">
-        <v>1.545220979</v>
+        <v>1.69194435</v>
       </c>
       <c r="AM140" t="n">
-        <v>0.056528148</v>
+        <v>0.043682558</v>
       </c>
       <c r="AN140" t="n">
-        <v>1.342889309</v>
+        <v>1.408996533</v>
       </c>
       <c r="AO140" t="n">
-        <v>0.056528148</v>
+        <v>0.043682558</v>
       </c>
       <c r="AP140" t="n">
-        <v>0.838905952</v>
+        <v>1.097875035</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.242258083</v>
+        <v>1.180411079</v>
       </c>
       <c r="AR140" t="n">
-        <v>0.100631226</v>
+        <v>0.228585454</v>
       </c>
       <c r="AS140" t="n">
-        <v>4680.149344</v>
+        <v>9861.361646</v>
       </c>
       <c r="AT140" t="n">
-        <v>1003.094218</v>
+        <v>857.4481398</v>
       </c>
       <c r="AU140" t="n">
-        <v>2236.279395</v>
+        <v>2388.499829</v>
       </c>
       <c r="AV140" t="n">
-        <v>135.014308</v>
+        <v>90.0123589</v>
       </c>
       <c r="AW140" t="n">
-        <v>90.00996958</v>
+        <v>63.53606923</v>
       </c>
       <c r="AX140" t="n">
-        <v>153.4974777</v>
+        <v>116.5011151</v>
       </c>
       <c r="AY140" t="n">
-        <v>53.47867338</v>
+        <v>81.77561061</v>
       </c>
       <c r="AZ140" t="n">
-        <v>0.003935162</v>
+        <v>0.00179523</v>
       </c>
       <c r="BA140" t="n">
-        <v>0.018107507</v>
+        <v>0.016989987</v>
       </c>
       <c r="BB140" t="n">
-        <v>2.288328872</v>
+        <v>2.134029327</v>
       </c>
       <c r="BC140" t="n">
-        <v>9.024672658</v>
+        <v>13.5028862</v>
       </c>
       <c r="BD140" t="n">
-        <v>0.215684673</v>
+        <v>0.944835005</v>
       </c>
       <c r="BE140" t="n">
-        <v>0.447530274</v>
+        <v>1.297449873</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B141" t="s">
         <v>349</v>
       </c>
       <c r="C141" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D141" t="s">
         <v>183</v>
       </c>
       <c r="E141" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F141" t="s">
         <v>77</v>
       </c>
       <c r="G141" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="H141" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I141" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J141" t="s">
         <v>78</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L141" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="M141" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="N141" t="n">
         <v>255.4748056</v>
@@ -25909,159 +26024,159 @@
         <v>0.213429245</v>
       </c>
       <c r="T141" t="n">
-        <v>20213.11055</v>
+        <v>34067.88742</v>
       </c>
       <c r="U141" t="n">
-        <v>66293</v>
+        <v>64380</v>
       </c>
       <c r="V141" t="n">
-        <v>0.304905655</v>
+        <v>0.529168801</v>
       </c>
       <c r="W141" t="n">
         <v>0</v>
       </c>
       <c r="X141" t="n">
-        <v>965.6698832</v>
+        <v>1881.406532</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.223698651</v>
+        <v>-1.191537179</v>
       </c>
       <c r="Z141" t="n">
-        <v>3.305367398</v>
+        <v>8.92526218</v>
       </c>
       <c r="AA141" t="n">
-        <v>2982.770056</v>
+        <v>6597.094528</v>
       </c>
       <c r="AB141" t="n">
-        <v>3794.642342</v>
+        <v>10753.08046</v>
       </c>
       <c r="AC141" t="n">
-        <v>6777.412398</v>
+        <v>17350.17499</v>
       </c>
       <c r="AD141" t="n">
-        <v>753.1662694</v>
+        <v>1273.071126</v>
       </c>
       <c r="AE141" t="n">
-        <v>3.36939136</v>
+        <v>0.464513743</v>
       </c>
       <c r="AF141" t="n">
-        <v>1286.370713</v>
+        <v>1999.680031</v>
       </c>
       <c r="AG141" t="n">
-        <v>1714.056906</v>
+        <v>4363.482061</v>
       </c>
       <c r="AH141" t="n">
-        <v>20.8354156</v>
+        <v>26.52091294</v>
       </c>
       <c r="AI141" t="n">
-        <v>0.286866253</v>
+        <v>0.774293216</v>
       </c>
       <c r="AJ141" t="n">
-        <v>98.49823473</v>
+        <v>69.50583974</v>
       </c>
       <c r="AK141" t="n">
-        <v>0.18024731</v>
+        <v>0.229184514</v>
       </c>
       <c r="AL141" t="n">
-        <v>1.545220979</v>
+        <v>2.303060847</v>
       </c>
       <c r="AM141" t="n">
-        <v>0.056528148</v>
+        <v>0.099262104</v>
       </c>
       <c r="AN141" t="n">
-        <v>1.342889309</v>
+        <v>2.098922508</v>
       </c>
       <c r="AO141" t="n">
-        <v>0.056528148</v>
+        <v>0.099262104</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.838905952</v>
+        <v>1.158860206</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.242258083</v>
+        <v>1.796388798</v>
       </c>
       <c r="AR141" t="n">
-        <v>0.100631226</v>
+        <v>0.30253371</v>
       </c>
       <c r="AS141" t="n">
-        <v>4680.149344</v>
+        <v>7906.522727</v>
       </c>
       <c r="AT141" t="n">
-        <v>1003.094218</v>
+        <v>1186.338514</v>
       </c>
       <c r="AU141" t="n">
-        <v>2236.279395</v>
+        <v>2423.29519</v>
       </c>
       <c r="AV141" t="n">
-        <v>135.014308</v>
+        <v>90.01893587</v>
       </c>
       <c r="AW141" t="n">
-        <v>90.00996958</v>
+        <v>63.52162484</v>
       </c>
       <c r="AX141" t="n">
-        <v>153.4974777</v>
+        <v>134.9981028</v>
       </c>
       <c r="AY141" t="n">
-        <v>53.47867338</v>
+        <v>89.24155645</v>
       </c>
       <c r="AZ141" t="n">
-        <v>0.003935162</v>
+        <v>0.005729859</v>
       </c>
       <c r="BA141" t="n">
-        <v>0.018107507</v>
+        <v>0.018433956</v>
       </c>
       <c r="BB141" t="n">
-        <v>2.288328872</v>
+        <v>2.729248009</v>
       </c>
       <c r="BC141" t="n">
-        <v>9.024672658</v>
+        <v>11.80578558</v>
       </c>
       <c r="BD141" t="n">
-        <v>0.215684673</v>
+        <v>0.812949998</v>
       </c>
       <c r="BE141" t="n">
-        <v>0.447530274</v>
+        <v>1.387189421</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B142" t="s">
         <v>349</v>
       </c>
       <c r="C142" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D142" t="s">
         <v>183</v>
       </c>
       <c r="E142" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F142" t="s">
         <v>77</v>
       </c>
       <c r="G142" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="H142" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I142" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J142" t="s">
         <v>78</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L142" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="M142" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="N142" t="n">
         <v>255.4748056</v>
@@ -26082,138 +26197,138 @@
         <v>0.213429245</v>
       </c>
       <c r="T142" t="n">
-        <v>20213.11055</v>
+        <v>52955.18173</v>
       </c>
       <c r="U142" t="n">
-        <v>66293</v>
+        <v>65376</v>
       </c>
       <c r="V142" t="n">
-        <v>0.304905655</v>
+        <v>0.81000951</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
       </c>
       <c r="X142" t="n">
-        <v>965.6698832</v>
+        <v>2095.424994</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.223698651</v>
+        <v>-2.878175657</v>
       </c>
       <c r="Z142" t="n">
-        <v>3.305367398</v>
+        <v>17.22443274</v>
       </c>
       <c r="AA142" t="n">
-        <v>2982.770056</v>
+        <v>4238.293761</v>
       </c>
       <c r="AB142" t="n">
-        <v>3794.642342</v>
+        <v>15753.30796</v>
       </c>
       <c r="AC142" t="n">
-        <v>6777.412398</v>
+        <v>19991.60172</v>
       </c>
       <c r="AD142" t="n">
-        <v>753.1662694</v>
+        <v>1351.392634</v>
       </c>
       <c r="AE142" t="n">
-        <v>3.36939136</v>
+        <v>1.271290483</v>
       </c>
       <c r="AF142" t="n">
-        <v>1286.370713</v>
+        <v>1811.557951</v>
       </c>
       <c r="AG142" t="n">
-        <v>1714.056906</v>
+        <v>5190.982075</v>
       </c>
       <c r="AH142" t="n">
-        <v>20.8354156</v>
+        <v>24.38000525</v>
       </c>
       <c r="AI142" t="n">
-        <v>0.286866253</v>
+        <v>0.754184456</v>
       </c>
       <c r="AJ142" t="n">
-        <v>98.49823473</v>
+        <v>92.99916341</v>
       </c>
       <c r="AK142" t="n">
-        <v>0.18024731</v>
+        <v>0.280010923</v>
       </c>
       <c r="AL142" t="n">
-        <v>1.545220979</v>
+        <v>2.687071575</v>
       </c>
       <c r="AM142" t="n">
-        <v>0.056528148</v>
+        <v>0.061018688</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.342889309</v>
+        <v>1.872582238</v>
       </c>
       <c r="AO142" t="n">
-        <v>0.056528148</v>
+        <v>0.061018688</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.838905952</v>
+        <v>1.31320975</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.242258083</v>
+        <v>1.471602946</v>
       </c>
       <c r="AR142" t="n">
-        <v>0.100631226</v>
+        <v>0.400979292</v>
       </c>
       <c r="AS142" t="n">
-        <v>4680.149344</v>
+        <v>11411.22498</v>
       </c>
       <c r="AT142" t="n">
-        <v>1003.094218</v>
+        <v>1188.096112</v>
       </c>
       <c r="AU142" t="n">
-        <v>2236.279395</v>
+        <v>2389.098164</v>
       </c>
       <c r="AV142" t="n">
-        <v>135.014308</v>
+        <v>90.01596922</v>
       </c>
       <c r="AW142" t="n">
-        <v>90.00996958</v>
+        <v>179.999703</v>
       </c>
       <c r="AX142" t="n">
-        <v>153.4974777</v>
+        <v>135.015948</v>
       </c>
       <c r="AY142" t="n">
-        <v>53.47867338</v>
+        <v>85.77268753</v>
       </c>
       <c r="AZ142" t="n">
-        <v>0.003935162</v>
+        <v>0.002955741</v>
       </c>
       <c r="BA142" t="n">
-        <v>0.018107507</v>
+        <v>0.017091663</v>
       </c>
       <c r="BB142" t="n">
-        <v>2.288328872</v>
+        <v>3.377055549</v>
       </c>
       <c r="BC142" t="n">
-        <v>9.024672658</v>
+        <v>77.39963644</v>
       </c>
       <c r="BD142" t="n">
-        <v>0.215684673</v>
+        <v>1.413072056</v>
       </c>
       <c r="BE142" t="n">
-        <v>0.447530274</v>
+        <v>2.742013701</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B143" t="s">
         <v>349</v>
       </c>
       <c r="C143" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D143" t="s">
         <v>183</v>
       </c>
       <c r="E143" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G143" t="s">
         <v>63</v>
@@ -26222,19 +26337,19 @@
         <v>64</v>
       </c>
       <c r="I143" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J143" t="s">
         <v>78</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L143" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="M143" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="N143" t="n">
         <v>255.4748056</v>
@@ -26255,159 +26370,157 @@
         <v>0.213429245</v>
       </c>
       <c r="T143" t="n">
-        <v>20213.11055</v>
+        <v>15547.72395</v>
       </c>
       <c r="U143" t="n">
-        <v>66293</v>
+        <v>59733</v>
       </c>
       <c r="V143" t="n">
-        <v>0.304905655</v>
+        <v>0.26028701</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
       </c>
       <c r="X143" t="n">
-        <v>965.6698832</v>
+        <v>477.8228391</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.223698651</v>
+        <v>0.18401121</v>
       </c>
       <c r="Z143" t="n">
-        <v>3.305367398</v>
+        <v>3.314355057</v>
       </c>
       <c r="AA143" t="n">
-        <v>2982.770056</v>
+        <v>1648.397633</v>
       </c>
       <c r="AB143" t="n">
-        <v>3794.642342</v>
+        <v>1710.996658</v>
       </c>
       <c r="AC143" t="n">
-        <v>6777.412398</v>
+        <v>3359.394291</v>
       </c>
       <c r="AD143" t="n">
-        <v>753.1662694</v>
+        <v>385.002094</v>
       </c>
       <c r="AE143" t="n">
-        <v>3.36939136</v>
+        <v>6.702238353</v>
       </c>
       <c r="AF143" t="n">
-        <v>1286.370713</v>
+        <v>546.8270857</v>
       </c>
       <c r="AG143" t="n">
-        <v>1714.056906</v>
+        <v>852.9135385</v>
       </c>
       <c r="AH143" t="n">
-        <v>20.8354156</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>0.286866253</v>
-      </c>
+        <v>18.42662885</v>
+      </c>
+      <c r="AI143"/>
       <c r="AJ143" t="n">
-        <v>98.49823473</v>
+        <v>16.98262965</v>
       </c>
       <c r="AK143" t="n">
-        <v>0.18024731</v>
+        <v>0.073189177</v>
       </c>
       <c r="AL143" t="n">
-        <v>1.545220979</v>
+        <v>0.261117846</v>
       </c>
       <c r="AM143" t="n">
-        <v>0.056528148</v>
+        <v>0.030818384</v>
       </c>
       <c r="AN143" t="n">
-        <v>1.342889309</v>
+        <v>0.577653555</v>
       </c>
       <c r="AO143" t="n">
-        <v>0.056528148</v>
+        <v>0.030818384</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.838905952</v>
+        <v>0.43206312</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.242258083</v>
+        <v>0.531154988</v>
       </c>
       <c r="AR143" t="n">
-        <v>0.100631226</v>
+        <v>0.046498567</v>
       </c>
       <c r="AS143" t="n">
-        <v>4680.149344</v>
+        <v>2508.420618</v>
       </c>
       <c r="AT143" t="n">
-        <v>1003.094218</v>
+        <v>510.8696462</v>
       </c>
       <c r="AU143" t="n">
-        <v>2236.279395</v>
+        <v>1375.979742</v>
       </c>
       <c r="AV143" t="n">
-        <v>135.014308</v>
+        <v>135.0022319</v>
       </c>
       <c r="AW143" t="n">
-        <v>90.00996958</v>
+        <v>44.99260663</v>
       </c>
       <c r="AX143" t="n">
-        <v>153.4974777</v>
+        <v>0.00569445</v>
       </c>
       <c r="AY143" t="n">
-        <v>53.47867338</v>
+        <v>10.76765308</v>
       </c>
       <c r="AZ143" t="n">
-        <v>0.003935162</v>
+        <v>0.004181264</v>
       </c>
       <c r="BA143" t="n">
-        <v>0.018107507</v>
+        <v>0.019157184</v>
       </c>
       <c r="BB143" t="n">
-        <v>2.288328872</v>
+        <v>0.338389509</v>
       </c>
       <c r="BC143" t="n">
-        <v>9.024672658</v>
+        <v>9.651555589</v>
       </c>
       <c r="BD143" t="n">
-        <v>0.215684673</v>
+        <v>1.091312398</v>
       </c>
       <c r="BE143" t="n">
-        <v>0.447530274</v>
+        <v>9.681436157</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B144" t="s">
         <v>349</v>
       </c>
       <c r="C144" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D144" t="s">
         <v>183</v>
       </c>
       <c r="E144" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F144" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G144" t="s">
         <v>63</v>
       </c>
       <c r="H144" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I144" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J144" t="s">
         <v>78</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L144" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="M144" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="N144" t="n">
         <v>255.4748056</v>
@@ -26428,159 +26541,157 @@
         <v>0.213429245</v>
       </c>
       <c r="T144" t="n">
-        <v>20213.11055</v>
+        <v>23113.2352</v>
       </c>
       <c r="U144" t="n">
-        <v>66293</v>
+        <v>65178</v>
       </c>
       <c r="V144" t="n">
-        <v>0.304905655</v>
+        <v>0.354617129</v>
       </c>
       <c r="W144" t="n">
         <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>965.6698832</v>
+        <v>796.9604431</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.223698651</v>
+        <v>-0.03166884</v>
       </c>
       <c r="Z144" t="n">
-        <v>3.305367398</v>
+        <v>3.327456146</v>
       </c>
       <c r="AA144" t="n">
-        <v>2982.770056</v>
+        <v>2288.628024</v>
       </c>
       <c r="AB144" t="n">
-        <v>3794.642342</v>
+        <v>3071.516259</v>
       </c>
       <c r="AC144" t="n">
-        <v>6777.412398</v>
+        <v>5360.144283</v>
       </c>
       <c r="AD144" t="n">
-        <v>753.1662694</v>
+        <v>624.4516617</v>
       </c>
       <c r="AE144" t="n">
-        <v>3.36939136</v>
+        <v>5.353557468</v>
       </c>
       <c r="AF144" t="n">
-        <v>1286.370713</v>
+        <v>986.3375617</v>
       </c>
       <c r="AG144" t="n">
-        <v>1714.056906</v>
+        <v>1597.103094</v>
       </c>
       <c r="AH144" t="n">
-        <v>20.8354156</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>0.286866253</v>
-      </c>
+        <v>28.64859857</v>
+      </c>
+      <c r="AI144"/>
       <c r="AJ144" t="n">
-        <v>98.49823473</v>
+        <v>30.00307203</v>
       </c>
       <c r="AK144" t="n">
-        <v>0.18024731</v>
+        <v>0.100700485</v>
       </c>
       <c r="AL144" t="n">
-        <v>1.545220979</v>
+        <v>0.496909494</v>
       </c>
       <c r="AM144" t="n">
-        <v>0.056528148</v>
+        <v>0.043169339</v>
       </c>
       <c r="AN144" t="n">
-        <v>1.342889309</v>
+        <v>1.029493746</v>
       </c>
       <c r="AO144" t="n">
-        <v>0.056528148</v>
+        <v>0.043169339</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.838905952</v>
+        <v>0.69505539</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.242258083</v>
+        <v>0.938523875</v>
       </c>
       <c r="AR144" t="n">
-        <v>0.100631226</v>
+        <v>0.090969871</v>
       </c>
       <c r="AS144" t="n">
-        <v>4680.149344</v>
+        <v>2952.471289</v>
       </c>
       <c r="AT144" t="n">
-        <v>1003.094218</v>
+        <v>663.6360043</v>
       </c>
       <c r="AU144" t="n">
-        <v>2236.279395</v>
+        <v>1560.163349</v>
       </c>
       <c r="AV144" t="n">
-        <v>135.014308</v>
+        <v>26.47423395</v>
       </c>
       <c r="AW144" t="n">
-        <v>90.00996958</v>
+        <v>179.9901657</v>
       </c>
       <c r="AX144" t="n">
-        <v>153.4974777</v>
+        <v>44.99206018</v>
       </c>
       <c r="AY144" t="n">
-        <v>53.47867338</v>
+        <v>60.38265061</v>
       </c>
       <c r="AZ144" t="n">
-        <v>0.003935162</v>
+        <v>0.001643534</v>
       </c>
       <c r="BA144" t="n">
-        <v>0.018107507</v>
+        <v>0.018374316</v>
       </c>
       <c r="BB144" t="n">
-        <v>2.288328872</v>
+        <v>0.636733899</v>
       </c>
       <c r="BC144" t="n">
-        <v>9.024672658</v>
+        <v>9.651555589</v>
       </c>
       <c r="BD144" t="n">
-        <v>0.215684673</v>
+        <v>1.076064128</v>
       </c>
       <c r="BE144" t="n">
-        <v>0.447530274</v>
+        <v>2.114881201</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B145" t="s">
         <v>349</v>
       </c>
       <c r="C145" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D145" t="s">
         <v>183</v>
       </c>
       <c r="E145" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F145" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G145" t="s">
         <v>63</v>
       </c>
       <c r="H145" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I145" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J145" t="s">
         <v>78</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L145" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="M145" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="N145" t="n">
         <v>255.4748056</v>
@@ -26601,123 +26712,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T145" t="n">
-        <v>20213.11055</v>
+        <v>31147.62909</v>
       </c>
       <c r="U145" t="n">
-        <v>66293</v>
+        <v>61811</v>
       </c>
       <c r="V145" t="n">
-        <v>0.304905655</v>
+        <v>0.503917249</v>
       </c>
       <c r="W145" t="n">
         <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>965.6698832</v>
+        <v>669.7299086</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.223698651</v>
+        <v>-0.469422309</v>
       </c>
       <c r="Z145" t="n">
-        <v>3.305367398</v>
+        <v>5.461096738</v>
       </c>
       <c r="AA145" t="n">
-        <v>2982.770056</v>
+        <v>2013.70372</v>
       </c>
       <c r="AB145" t="n">
-        <v>3794.642342</v>
+        <v>4046.556295</v>
       </c>
       <c r="AC145" t="n">
-        <v>6777.412398</v>
+        <v>6060.260015</v>
       </c>
       <c r="AD145" t="n">
-        <v>753.1662694</v>
+        <v>501.262327</v>
       </c>
       <c r="AE145" t="n">
-        <v>3.36939136</v>
+        <v>5.968163473</v>
       </c>
       <c r="AF145" t="n">
-        <v>1286.370713</v>
+        <v>850.122814</v>
       </c>
       <c r="AG145" t="n">
-        <v>1714.056906</v>
+        <v>1291.039494</v>
       </c>
       <c r="AH145" t="n">
-        <v>20.8354156</v>
+        <v>21.19996282</v>
       </c>
       <c r="AI145" t="n">
-        <v>0.286866253</v>
+        <v>0.227508813</v>
       </c>
       <c r="AJ145" t="n">
-        <v>98.49823473</v>
+        <v>22.99905789</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.18024731</v>
+        <v>0.114919111</v>
       </c>
       <c r="AL145" t="n">
-        <v>1.545220979</v>
+        <v>0.600420256</v>
       </c>
       <c r="AM145" t="n">
-        <v>0.056528148</v>
+        <v>0.030725666</v>
       </c>
       <c r="AN145" t="n">
-        <v>1.342889309</v>
+        <v>0.880871454</v>
       </c>
       <c r="AO145" t="n">
-        <v>0.056528148</v>
+        <v>0.030725666</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.838905952</v>
+        <v>0.518250171</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.242258083</v>
+        <v>0.797528159</v>
       </c>
       <c r="AR145" t="n">
-        <v>0.100631226</v>
+        <v>0.083343295</v>
       </c>
       <c r="AS145" t="n">
-        <v>4680.149344</v>
+        <v>3654.395294</v>
       </c>
       <c r="AT145" t="n">
-        <v>1003.094218</v>
+        <v>544.1137241</v>
       </c>
       <c r="AU145" t="n">
-        <v>2236.279395</v>
+        <v>1788.158209</v>
       </c>
       <c r="AV145" t="n">
-        <v>135.014308</v>
+        <v>179.9920262</v>
       </c>
       <c r="AW145" t="n">
-        <v>90.00996958</v>
+        <v>63.51898753</v>
       </c>
       <c r="AX145" t="n">
-        <v>153.4974777</v>
+        <v>26.42341145</v>
       </c>
       <c r="AY145" t="n">
-        <v>53.47867338</v>
+        <v>60.44077486</v>
       </c>
       <c r="AZ145" t="n">
-        <v>0.003935162</v>
+        <v>0.003185509</v>
       </c>
       <c r="BA145" t="n">
-        <v>0.018107507</v>
+        <v>0.01853534</v>
       </c>
       <c r="BB145" t="n">
-        <v>2.288328872</v>
+        <v>0.82571491</v>
       </c>
       <c r="BC145" t="n">
-        <v>9.024672658</v>
+        <v>14.44084031</v>
       </c>
       <c r="BD145" t="n">
-        <v>0.215684673</v>
+        <v>2.270973932</v>
       </c>
       <c r="BE145" t="n">
-        <v>0.447530274</v>
+        <v>8.517249149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B146" t="s">
         <v>349</v>
@@ -26726,13 +26837,13 @@
         <v>59</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E146" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F146" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G146" t="s">
         <v>63</v>
@@ -26741,19 +26852,19 @@
         <v>64</v>
       </c>
       <c r="I146" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J146" t="s">
         <v>78</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L146" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="M146" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="N146" t="n">
         <v>255.4748056</v>
@@ -26774,123 +26885,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T146" t="n">
-        <v>20213.11055</v>
+        <v>68897.96715</v>
       </c>
       <c r="U146" t="n">
-        <v>66293</v>
+        <v>65239</v>
       </c>
       <c r="V146" t="n">
-        <v>0.304905655</v>
+        <v>1.05608558</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
       </c>
       <c r="X146" t="n">
-        <v>965.6698832</v>
+        <v>2738.372068</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.223698651</v>
+        <v>-0.247447908</v>
       </c>
       <c r="Z146" t="n">
-        <v>3.305367398</v>
+        <v>2.968504743</v>
       </c>
       <c r="AA146" t="n">
-        <v>2982.770056</v>
+        <v>8267.249136</v>
       </c>
       <c r="AB146" t="n">
-        <v>3794.642342</v>
+        <v>8640.258563</v>
       </c>
       <c r="AC146" t="n">
-        <v>6777.412398</v>
+        <v>16907.5077</v>
       </c>
       <c r="AD146" t="n">
-        <v>753.1662694</v>
+        <v>2161.18731</v>
       </c>
       <c r="AE146" t="n">
-        <v>3.36939136</v>
+        <v>0.183413625</v>
       </c>
       <c r="AF146" t="n">
-        <v>1286.370713</v>
+        <v>3408.853121</v>
       </c>
       <c r="AG146" t="n">
-        <v>1714.056906</v>
+        <v>5845.184548</v>
       </c>
       <c r="AH146" t="n">
-        <v>20.8354156</v>
+        <v>24.12752811</v>
       </c>
       <c r="AI146" t="n">
-        <v>0.286866253</v>
+        <v>0.775099009</v>
       </c>
       <c r="AJ146" t="n">
-        <v>98.49823473</v>
+        <v>176.9921063</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.18024731</v>
+        <v>0.360563208</v>
       </c>
       <c r="AL146" t="n">
-        <v>1.545220979</v>
+        <v>5.795248583</v>
       </c>
       <c r="AM146" t="n">
-        <v>0.056528148</v>
+        <v>0.110442475</v>
       </c>
       <c r="AN146" t="n">
-        <v>1.342889309</v>
+        <v>3.519292707</v>
       </c>
       <c r="AO146" t="n">
-        <v>0.056528148</v>
+        <v>0.110442475</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.838905952</v>
+        <v>2.480002921</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.242258083</v>
+        <v>3.154424865</v>
       </c>
       <c r="AR146" t="n">
-        <v>0.100631226</v>
+        <v>0.364867843</v>
       </c>
       <c r="AS146" t="n">
-        <v>4680.149344</v>
+        <v>9329.776838</v>
       </c>
       <c r="AT146" t="n">
-        <v>1003.094218</v>
+        <v>2546.480672</v>
       </c>
       <c r="AU146" t="n">
-        <v>2236.279395</v>
+        <v>1885.761032</v>
       </c>
       <c r="AV146" t="n">
-        <v>135.014308</v>
+        <v>179.9939402</v>
       </c>
       <c r="AW146" t="n">
-        <v>90.00996958</v>
+        <v>134.9958023</v>
       </c>
       <c r="AX146" t="n">
-        <v>153.4974777</v>
+        <v>89.99062936</v>
       </c>
       <c r="AY146" t="n">
-        <v>53.47867338</v>
+        <v>80.397029</v>
       </c>
       <c r="AZ146" t="n">
-        <v>0.003935162</v>
+        <v>0.001417299</v>
       </c>
       <c r="BA146" t="n">
-        <v>0.018107507</v>
+        <v>0.018304921</v>
       </c>
       <c r="BB146" t="n">
-        <v>2.288328872</v>
+        <v>7.159923157</v>
       </c>
       <c r="BC146" t="n">
-        <v>9.024672658</v>
+        <v>115.8068023</v>
       </c>
       <c r="BD146" t="n">
-        <v>0.215684673</v>
+        <v>0.341764155</v>
       </c>
       <c r="BE146" t="n">
-        <v>0.447530274</v>
+        <v>0.464913636</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B147" t="s">
         <v>349</v>
@@ -26899,34 +27010,34 @@
         <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E147" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F147" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G147" t="s">
         <v>63</v>
       </c>
       <c r="H147" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I147" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J147" t="s">
         <v>78</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L147" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="M147" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="N147" t="n">
         <v>255.4748056</v>
@@ -26947,123 +27058,121 @@
         <v>0.213429245</v>
       </c>
       <c r="T147" t="n">
-        <v>20213.11055</v>
+        <v>44935.31717</v>
       </c>
       <c r="U147" t="n">
-        <v>66293</v>
+        <v>65671</v>
       </c>
       <c r="V147" t="n">
-        <v>0.304905655</v>
+        <v>0.684249017</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>965.6698832</v>
+        <v>4072.949862</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.223698651</v>
+        <v>-0.734482795</v>
       </c>
       <c r="Z147" t="n">
-        <v>3.305367398</v>
+        <v>5.852680276</v>
       </c>
       <c r="AA147" t="n">
-        <v>2982.770056</v>
+        <v>10866.62706</v>
       </c>
       <c r="AB147" t="n">
-        <v>3794.642342</v>
+        <v>19925.81034</v>
       </c>
       <c r="AC147" t="n">
-        <v>6777.412398</v>
+        <v>30792.43739</v>
       </c>
       <c r="AD147" t="n">
-        <v>753.1662694</v>
+        <v>3009.278289</v>
       </c>
       <c r="AE147" t="n">
-        <v>3.36939136</v>
+        <v>0.357484489</v>
       </c>
       <c r="AF147" t="n">
-        <v>1286.370713</v>
+        <v>5011.816186</v>
       </c>
       <c r="AG147" t="n">
-        <v>1714.056906</v>
+        <v>8349.857539</v>
       </c>
       <c r="AH147" t="n">
-        <v>20.8354156</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>0.286866253</v>
-      </c>
+        <v>31.46818106</v>
+      </c>
+      <c r="AI147"/>
       <c r="AJ147" t="n">
-        <v>98.49823473</v>
+        <v>129.0084998</v>
       </c>
       <c r="AK147" t="n">
-        <v>0.18024731</v>
+        <v>0.450565514</v>
       </c>
       <c r="AL147" t="n">
-        <v>1.545220979</v>
+        <v>8.244907179</v>
       </c>
       <c r="AM147" t="n">
-        <v>0.056528148</v>
+        <v>0.183049256</v>
       </c>
       <c r="AN147" t="n">
-        <v>1.342889309</v>
+        <v>5.194896558</v>
       </c>
       <c r="AO147" t="n">
-        <v>0.056528148</v>
+        <v>0.183049256</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.838905952</v>
+        <v>3.018061731</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.242258083</v>
+        <v>4.623562861</v>
       </c>
       <c r="AR147" t="n">
-        <v>0.100631226</v>
+        <v>0.571333697</v>
       </c>
       <c r="AS147" t="n">
-        <v>4680.149344</v>
+        <v>13981.61368</v>
       </c>
       <c r="AT147" t="n">
-        <v>1003.094218</v>
+        <v>3011.215425</v>
       </c>
       <c r="AU147" t="n">
-        <v>2236.279395</v>
+        <v>1878.35041</v>
       </c>
       <c r="AV147" t="n">
-        <v>135.014308</v>
+        <v>135.0052401</v>
       </c>
       <c r="AW147" t="n">
-        <v>90.00996958</v>
+        <v>90.01879391</v>
       </c>
       <c r="AX147" t="n">
-        <v>153.4974777</v>
+        <v>179.9824155</v>
       </c>
       <c r="AY147" t="n">
-        <v>53.47867338</v>
+        <v>72.44798982</v>
       </c>
       <c r="AZ147" t="n">
-        <v>0.003935162</v>
+        <v>0.00286807</v>
       </c>
       <c r="BA147" t="n">
-        <v>0.018107507</v>
+        <v>0.016965133</v>
       </c>
       <c r="BB147" t="n">
-        <v>2.288328872</v>
+        <v>10.16358697</v>
       </c>
       <c r="BC147" t="n">
-        <v>9.024672658</v>
+        <v>67.67171833</v>
       </c>
       <c r="BD147" t="n">
-        <v>0.215684673</v>
+        <v>0.350738471</v>
       </c>
       <c r="BE147" t="n">
-        <v>0.447530274</v>
+        <v>0.662300296</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B148" t="s">
         <v>349</v>
@@ -27072,34 +27181,34 @@
         <v>59</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E148" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F148" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G148" t="s">
         <v>63</v>
       </c>
       <c r="H148" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I148" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J148" t="s">
         <v>78</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L148" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="M148" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="N148" t="n">
         <v>255.4748056</v>
@@ -27120,123 +27229,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T148" t="n">
-        <v>20213.11055</v>
+        <v>43323.395</v>
       </c>
       <c r="U148" t="n">
-        <v>66293</v>
+        <v>65163</v>
       </c>
       <c r="V148" t="n">
-        <v>0.304905655</v>
+        <v>0.664846539</v>
       </c>
       <c r="W148" t="n">
         <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>965.6698832</v>
+        <v>4640.724822</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.223698651</v>
+        <v>-0.298196716</v>
       </c>
       <c r="Z148" t="n">
-        <v>3.305367398</v>
+        <v>3.121250913</v>
       </c>
       <c r="AA148" t="n">
-        <v>2982.770056</v>
+        <v>13027.73441</v>
       </c>
       <c r="AB148" t="n">
-        <v>3794.642342</v>
+        <v>14204.24685</v>
       </c>
       <c r="AC148" t="n">
-        <v>6777.412398</v>
+        <v>27231.98126</v>
       </c>
       <c r="AD148" t="n">
-        <v>753.1662694</v>
+        <v>3648.850468</v>
       </c>
       <c r="AE148" t="n">
-        <v>3.36939136</v>
+        <v>0.341410534</v>
       </c>
       <c r="AF148" t="n">
-        <v>1286.370713</v>
+        <v>5638.897246</v>
       </c>
       <c r="AG148" t="n">
-        <v>1714.056906</v>
+        <v>10817.95791</v>
       </c>
       <c r="AH148" t="n">
-        <v>20.8354156</v>
+        <v>27.27556878</v>
       </c>
       <c r="AI148" t="n">
-        <v>0.286866253</v>
+        <v>0.572475471</v>
       </c>
       <c r="AJ148" t="n">
-        <v>98.49823473</v>
+        <v>132.7347716</v>
       </c>
       <c r="AK148" t="n">
-        <v>0.18024731</v>
+        <v>0.443562577</v>
       </c>
       <c r="AL148" t="n">
-        <v>1.545220979</v>
+        <v>8.283188727</v>
       </c>
       <c r="AM148" t="n">
-        <v>0.056528148</v>
+        <v>0.211552815</v>
       </c>
       <c r="AN148" t="n">
-        <v>1.342889309</v>
+        <v>5.850466973</v>
       </c>
       <c r="AO148" t="n">
-        <v>0.056528148</v>
+        <v>0.211552815</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.838905952</v>
+        <v>4.151694444</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.242258083</v>
+        <v>5.223240114</v>
       </c>
       <c r="AR148" t="n">
-        <v>0.100631226</v>
+        <v>0.627226859</v>
       </c>
       <c r="AS148" t="n">
-        <v>4680.149344</v>
+        <v>10142.38021</v>
       </c>
       <c r="AT148" t="n">
-        <v>1003.094218</v>
+        <v>2985.872865</v>
       </c>
       <c r="AU148" t="n">
-        <v>2236.279395</v>
+        <v>1993.445194</v>
       </c>
       <c r="AV148" t="n">
-        <v>135.014308</v>
+        <v>90.01420359</v>
       </c>
       <c r="AW148" t="n">
-        <v>90.00996958</v>
+        <v>116.4851066</v>
       </c>
       <c r="AX148" t="n">
-        <v>153.4974777</v>
+        <v>179.9926008</v>
       </c>
       <c r="AY148" t="n">
-        <v>53.47867338</v>
+        <v>53.65497176</v>
       </c>
       <c r="AZ148" t="n">
-        <v>0.003935162</v>
+        <v>0.00212458</v>
       </c>
       <c r="BA148" t="n">
-        <v>0.018107507</v>
+        <v>0.018259815</v>
       </c>
       <c r="BB148" t="n">
-        <v>2.288328872</v>
+        <v>8.578935185</v>
       </c>
       <c r="BC148" t="n">
-        <v>9.024672658</v>
+        <v>2079.054973</v>
       </c>
       <c r="BD148" t="n">
-        <v>0.215684673</v>
+        <v>0.381128835</v>
       </c>
       <c r="BE148" t="n">
-        <v>0.447530274</v>
+        <v>0.601355043</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s">
         <v>349</v>
@@ -27245,13 +27354,13 @@
         <v>59</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E149" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F149" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G149" t="s">
         <v>63</v>
@@ -27260,19 +27369,19 @@
         <v>64</v>
       </c>
       <c r="I149" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J149" t="s">
         <v>78</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L149" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="M149" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="N149" t="n">
         <v>255.4748056</v>
@@ -27293,123 +27402,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T149" t="n">
-        <v>20213.11055</v>
+        <v>21318.81882</v>
       </c>
       <c r="U149" t="n">
-        <v>66293</v>
+        <v>65592</v>
       </c>
       <c r="V149" t="n">
-        <v>0.304905655</v>
+        <v>0.325021631</v>
       </c>
       <c r="W149" t="n">
         <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>965.6698832</v>
+        <v>771.450028</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.223698651</v>
+        <v>-1.573408639</v>
       </c>
       <c r="Z149" t="n">
-        <v>3.305367398</v>
+        <v>10.26736286</v>
       </c>
       <c r="AA149" t="n">
-        <v>2982.770056</v>
+        <v>2999.462121</v>
       </c>
       <c r="AB149" t="n">
-        <v>3794.642342</v>
+        <v>4710.636004</v>
       </c>
       <c r="AC149" t="n">
-        <v>6777.412398</v>
+        <v>7710.098125</v>
       </c>
       <c r="AD149" t="n">
-        <v>753.1662694</v>
+        <v>498.2693256</v>
       </c>
       <c r="AE149" t="n">
-        <v>3.36939136</v>
+        <v>0.793336795</v>
       </c>
       <c r="AF149" t="n">
-        <v>1286.370713</v>
+        <v>743.6788793</v>
       </c>
       <c r="AG149" t="n">
-        <v>1714.056906</v>
+        <v>2011.76721</v>
       </c>
       <c r="AH149" t="n">
-        <v>20.8354156</v>
+        <v>19.91886875</v>
       </c>
       <c r="AI149" t="n">
-        <v>0.286866253</v>
+        <v>0.840361464</v>
       </c>
       <c r="AJ149" t="n">
-        <v>98.49823473</v>
+        <v>176.4941061</v>
       </c>
       <c r="AK149" t="n">
-        <v>0.18024731</v>
+        <v>0.160654411</v>
       </c>
       <c r="AL149" t="n">
-        <v>1.545220979</v>
+        <v>1.145107963</v>
       </c>
       <c r="AM149" t="n">
-        <v>0.056528148</v>
+        <v>0.035637121</v>
       </c>
       <c r="AN149" t="n">
-        <v>1.342889309</v>
+        <v>0.779326854</v>
       </c>
       <c r="AO149" t="n">
-        <v>0.056528148</v>
+        <v>0.035637121</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.838905952</v>
+        <v>0.451251959</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.242258083</v>
+        <v>0.62954247</v>
       </c>
       <c r="AR149" t="n">
-        <v>0.100631226</v>
+        <v>0.149784384</v>
       </c>
       <c r="AS149" t="n">
-        <v>4680.149344</v>
+        <v>4969.808252</v>
       </c>
       <c r="AT149" t="n">
-        <v>1003.094218</v>
+        <v>667.8485571</v>
       </c>
       <c r="AU149" t="n">
-        <v>2236.279395</v>
+        <v>2300.921002</v>
       </c>
       <c r="AV149" t="n">
-        <v>135.014308</v>
+        <v>179.990207</v>
       </c>
       <c r="AW149" t="n">
-        <v>90.00996958</v>
+        <v>134.9842907</v>
       </c>
       <c r="AX149" t="n">
-        <v>153.4974777</v>
+        <v>116.4507187</v>
       </c>
       <c r="AY149" t="n">
-        <v>53.47867338</v>
+        <v>74.86293817</v>
       </c>
       <c r="AZ149" t="n">
-        <v>0.003935162</v>
+        <v>0.003374743</v>
       </c>
       <c r="BA149" t="n">
-        <v>0.018107507</v>
+        <v>0.018149905</v>
       </c>
       <c r="BB149" t="n">
-        <v>2.288328872</v>
+        <v>1.662814154</v>
       </c>
       <c r="BC149" t="n">
-        <v>9.024672658</v>
+        <v>11.03898219</v>
       </c>
       <c r="BD149" t="n">
-        <v>0.215684673</v>
+        <v>0.826230512</v>
       </c>
       <c r="BE149" t="n">
-        <v>0.447530274</v>
+        <v>1.958771809</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B150" t="s">
         <v>349</v>
@@ -27418,34 +27527,34 @@
         <v>59</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E150" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F150" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G150" t="s">
         <v>63</v>
       </c>
       <c r="H150" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I150" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J150" t="s">
         <v>78</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L150" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="M150" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="N150" t="n">
         <v>255.4748056</v>
@@ -27466,123 +27575,123 @@
         <v>0.213429245</v>
       </c>
       <c r="T150" t="n">
-        <v>20213.11055</v>
+        <v>25182.4716</v>
       </c>
       <c r="U150" t="n">
-        <v>66293</v>
+        <v>65872</v>
       </c>
       <c r="V150" t="n">
-        <v>0.304905655</v>
+        <v>0.382294019</v>
       </c>
       <c r="W150" t="n">
         <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>965.6698832</v>
+        <v>854.9914224</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.223698651</v>
+        <v>-0.889832952</v>
       </c>
       <c r="Z150" t="n">
-        <v>3.305367398</v>
+        <v>5.300942384</v>
       </c>
       <c r="AA150" t="n">
-        <v>2982.770056</v>
+        <v>2800.571293</v>
       </c>
       <c r="AB150" t="n">
-        <v>3794.642342</v>
+        <v>3835.47943</v>
       </c>
       <c r="AC150" t="n">
-        <v>6777.412398</v>
+        <v>6636.050723</v>
       </c>
       <c r="AD150" t="n">
-        <v>753.1662694</v>
+        <v>621.5347854</v>
       </c>
       <c r="AE150" t="n">
-        <v>3.36939136</v>
+        <v>1.196198252</v>
       </c>
       <c r="AF150" t="n">
-        <v>1286.370713</v>
+        <v>856.3616535</v>
       </c>
       <c r="AG150" t="n">
-        <v>1714.056906</v>
+        <v>2286.781551</v>
       </c>
       <c r="AH150" t="n">
-        <v>20.8354156</v>
+        <v>35.03725188</v>
       </c>
       <c r="AI150" t="n">
-        <v>0.286866253</v>
+        <v>0.853584535</v>
       </c>
       <c r="AJ150" t="n">
-        <v>98.49823473</v>
+        <v>92.99930338</v>
       </c>
       <c r="AK150" t="n">
-        <v>0.18024731</v>
+        <v>0.156678325</v>
       </c>
       <c r="AL150" t="n">
-        <v>1.545220979</v>
+        <v>1.126067368</v>
       </c>
       <c r="AM150" t="n">
-        <v>0.056528148</v>
+        <v>0.038324904</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.342889309</v>
+        <v>0.894680133</v>
       </c>
       <c r="AO150" t="n">
-        <v>0.056528148</v>
+        <v>0.038324904</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.838905952</v>
+        <v>0.60152569</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.242258083</v>
+        <v>0.740096939</v>
       </c>
       <c r="AR150" t="n">
-        <v>0.100631226</v>
+        <v>0.154583193</v>
       </c>
       <c r="AS150" t="n">
-        <v>4680.149344</v>
+        <v>3686.57591</v>
       </c>
       <c r="AT150" t="n">
-        <v>1003.094218</v>
+        <v>734.6520861</v>
       </c>
       <c r="AU150" t="n">
-        <v>2236.279395</v>
+        <v>2372.221618</v>
       </c>
       <c r="AV150" t="n">
-        <v>135.014308</v>
+        <v>90.02517105</v>
       </c>
       <c r="AW150" t="n">
-        <v>90.00996958</v>
+        <v>134.9435035</v>
       </c>
       <c r="AX150" t="n">
-        <v>153.4974777</v>
+        <v>45.01023357</v>
       </c>
       <c r="AY150" t="n">
-        <v>53.47867338</v>
+        <v>67.48049333</v>
       </c>
       <c r="AZ150" t="n">
-        <v>0.003935162</v>
+        <v>0.001280513</v>
       </c>
       <c r="BA150" t="n">
-        <v>0.018107507</v>
+        <v>0.017277388</v>
       </c>
       <c r="BB150" t="n">
-        <v>2.288328872</v>
+        <v>1.675712118</v>
       </c>
       <c r="BC150" t="n">
-        <v>9.024672658</v>
+        <v>5.639887625</v>
       </c>
       <c r="BD150" t="n">
-        <v>0.215684673</v>
+        <v>1.514439588</v>
       </c>
       <c r="BE150" t="n">
-        <v>0.447530274</v>
+        <v>1.558650747</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B151" t="s">
         <v>349</v>
@@ -27591,34 +27700,34 @@
         <v>59</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="E151" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F151" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G151" t="s">
         <v>63</v>
       </c>
       <c r="H151" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I151" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="J151" t="s">
         <v>78</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="L151" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="M151" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="N151" t="n">
         <v>255.4748056</v>
@@ -27639,118 +27748,118 @@
         <v>0.213429245</v>
       </c>
       <c r="T151" t="n">
-        <v>20213.11055</v>
+        <v>27346.29994</v>
       </c>
       <c r="U151" t="n">
-        <v>66293</v>
+        <v>67345</v>
       </c>
       <c r="V151" t="n">
-        <v>0.304905655</v>
+        <v>0.40606281</v>
       </c>
       <c r="W151" t="n">
         <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>965.6698832</v>
+        <v>405.9694562</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.223698651</v>
+        <v>-1.875875349</v>
       </c>
       <c r="Z151" t="n">
-        <v>3.305367398</v>
+        <v>17.06575871</v>
       </c>
       <c r="AA151" t="n">
-        <v>2982.770056</v>
+        <v>1623.682752</v>
       </c>
       <c r="AB151" t="n">
-        <v>3794.642342</v>
+        <v>3397.771169</v>
       </c>
       <c r="AC151" t="n">
-        <v>6777.412398</v>
+        <v>5021.453922</v>
       </c>
       <c r="AD151" t="n">
-        <v>753.1662694</v>
+        <v>272.519831</v>
       </c>
       <c r="AE151" t="n">
-        <v>3.36939136</v>
+        <v>3.852734481</v>
       </c>
       <c r="AF151" t="n">
-        <v>1286.370713</v>
+        <v>444.3766979</v>
       </c>
       <c r="AG151" t="n">
-        <v>1714.056906</v>
+        <v>671.4314117</v>
       </c>
       <c r="AH151" t="n">
-        <v>20.8354156</v>
+        <v>16.82624003</v>
       </c>
       <c r="AI151" t="n">
-        <v>0.286866253</v>
+        <v>0.594204452</v>
       </c>
       <c r="AJ151" t="n">
-        <v>98.49823473</v>
+        <v>141.2567156</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.18024731</v>
+        <v>0.100250307</v>
       </c>
       <c r="AL151" t="n">
-        <v>1.545220979</v>
+        <v>0.456178033</v>
       </c>
       <c r="AM151" t="n">
-        <v>0.056528148</v>
+        <v>0.020794093</v>
       </c>
       <c r="AN151" t="n">
-        <v>1.342889309</v>
+        <v>0.465180748</v>
       </c>
       <c r="AO151" t="n">
-        <v>0.056528148</v>
+        <v>0.020794093</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.838905952</v>
+        <v>0.259255771</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.242258083</v>
+        <v>0.413346667</v>
       </c>
       <c r="AR151" t="n">
-        <v>0.100631226</v>
+        <v>0.05183408</v>
       </c>
       <c r="AS151" t="n">
-        <v>4680.149344</v>
+        <v>3473.363822</v>
       </c>
       <c r="AT151" t="n">
-        <v>1003.094218</v>
+        <v>318.1982275</v>
       </c>
       <c r="AU151" t="n">
-        <v>2236.279395</v>
+        <v>2680.757173</v>
       </c>
       <c r="AV151" t="n">
-        <v>135.014308</v>
+        <v>141.2483714</v>
       </c>
       <c r="AW151" t="n">
-        <v>90.00996958</v>
+        <v>146.1707686</v>
       </c>
       <c r="AX151" t="n">
-        <v>153.4974777</v>
+        <v>135.0418016</v>
       </c>
       <c r="AY151" t="n">
-        <v>53.47867338</v>
+        <v>63.50237973</v>
       </c>
       <c r="AZ151" t="n">
-        <v>0.003935162</v>
+        <v>0.009179079</v>
       </c>
       <c r="BA151" t="n">
-        <v>0.018107507</v>
+        <v>0.020043781</v>
       </c>
       <c r="BB151" t="n">
-        <v>2.288328872</v>
+        <v>0.667662692</v>
       </c>
       <c r="BC151" t="n">
-        <v>9.024672658</v>
+        <v>4.610763815</v>
       </c>
       <c r="BD151" t="n">
-        <v>0.215684673</v>
+        <v>0.904315801</v>
       </c>
       <c r="BE151" t="n">
-        <v>0.447530274</v>
+        <v>2.4295349</v>
       </c>
     </row>
   </sheetData>
@@ -27769,90 +27878,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="B1" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
@@ -27860,7 +27969,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13">
@@ -27868,7 +27977,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14">
@@ -27876,7 +27985,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15">
@@ -27884,7 +27993,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16">
@@ -27892,7 +28001,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17">
@@ -27900,7 +28009,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18">
@@ -27908,55 +28017,55 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25">
@@ -27964,7 +28073,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26">
@@ -27972,103 +28081,103 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="B27" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="B32" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="B33" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="B34" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="B37" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="B38" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39">
@@ -28076,55 +28185,55 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="B40" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="B44" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/derived_data/Use-wear.xlsx
+++ b/analysis/derived_data/Use-wear.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Spot</t>
   </si>
   <si>
-    <t xml:space="preserve">Use-wear.type</t>
+    <t xml:space="preserve">Usewear.type</t>
   </si>
   <si>
     <t xml:space="preserve">Objective</t>

--- a/analysis/derived_data/Use-wear.xlsx
+++ b/analysis/derived_data/Use-wear.xlsx
@@ -435,7 +435,7 @@
     <t xml:space="preserve">MU-104</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick spall</t>
+    <t xml:space="preserve">Pradnik spall</t>
   </si>
   <si>
     <t xml:space="preserve">C/E</t>
@@ -996,7 +996,7 @@
     <t xml:space="preserve">BU-115</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick scraper</t>
+    <t xml:space="preserve">Pradnik scraper</t>
   </si>
   <si>
     <t xml:space="preserve">14:58:28</t>
@@ -1755,7 +1755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -27874,7 +27874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/analysis/derived_data/Use-wear.xlsx
+++ b/analysis/derived_data/Use-wear.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -1425,8 +1425,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1463,7 +1465,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,10 +1752,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -27869,10 +27871,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
